--- a/xlsx/意大利_intext.xlsx
+++ b/xlsx/意大利_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2637">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2651">
   <si>
     <t>意大利</t>
   </si>
@@ -29,7 +29,7 @@
     <t>義大利語</t>
   </si>
   <si>
-    <t>政策_政策_行政_意大利</t>
+    <t>体育运动_体育运动_奥林匹克运动会_意大利</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%B4%B2</t>
@@ -6626,1030 +6626,1072 @@
     <t>英国</t>
   </si>
   <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E6%A0%BC%E5%85%B0</t>
+  </si>
+  <si>
+    <t>英格兰</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8B%8F%E6%A0%BC%E5%85%B0</t>
+  </si>
+  <si>
+    <t>苏格兰</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E7%88%BE%E5%A3%AB</t>
+  </si>
+  <si>
+    <t>威爾士</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E7%88%B1%E5%B0%94%E5%85%B0</t>
+  </si>
+  <si>
+    <t>北爱尔兰</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%88%B1%E5%B0%94%E5%85%B0</t>
+  </si>
+  <si>
+    <t>爱尔兰</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E5%85%B0%E7%8E%8B%E5%9B%BD</t>
+  </si>
+  <si>
+    <t>荷兰王国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E5%88%A9%E6%97%B6</t>
+  </si>
+  <si>
+    <t>比利时</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%A2%E6%A3%AE%E5%A0%A1</t>
+  </si>
+  <si>
+    <t>卢森堡</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E6%AC%A7</t>
+  </si>
+  <si>
+    <t>北欧</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%B9%E9%BA%A6</t>
+  </si>
+  <si>
+    <t>丹麦</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8A%AC%E5%85%B0</t>
+  </si>
+  <si>
+    <t>芬兰</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%8C%AA%E5%A8%81</t>
+  </si>
+  <si>
+    <t>挪威</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%86%B0%E5%B2%9B</t>
+  </si>
+  <si>
+    <t>冰岛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E6%AC%A7</t>
+  </si>
+  <si>
+    <t>中欧</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9B%BD</t>
+  </si>
+  <si>
+    <t>德国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E5%85%B0</t>
+  </si>
+  <si>
+    <t>波兰</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%8D%B7%E5%85%8B</t>
+  </si>
+  <si>
+    <t>捷克</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E6%B4%9B%E4%BC%90%E5%85%8B</t>
+  </si>
+  <si>
+    <t>斯洛伐克</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8C%88%E7%89%99%E5%88%A9</t>
+  </si>
+  <si>
+    <t>匈牙利</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%88%97%E6%94%AF%E6%95%A6%E6%96%AF%E7%99%BB</t>
+  </si>
+  <si>
+    <t>列支敦斯登</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%9C%E6%AC%A7</t>
+  </si>
+  <si>
+    <t>东欧</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8B%8F%E8%81%94%E5%8A%A0%E7%9B%9F%E5%85%B1%E5%92%8C%E5%9B%BD</t>
+  </si>
+  <si>
+    <t>苏联加盟共和国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E7%BD%97%E6%96%AF</t>
+  </si>
+  <si>
+    <t>俄罗斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%B4%B2%E4%BF%84%E7%BE%85%E6%96%AF</t>
+  </si>
+  <si>
+    <t>歐洲俄羅斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%99%BD%E4%BF%84%E7%BD%97%E6%96%AF</t>
+  </si>
+  <si>
+    <t>白俄罗斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%88%B1%E6%B2%99%E5%B0%BC%E4%BA%9A</t>
+  </si>
+  <si>
+    <t>爱沙尼亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E8%84%AB%E7%B6%AD%E4%BA%9E</t>
+  </si>
+  <si>
+    <t>拉脫維亞</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%AB%8B%E9%99%B6%E5%AE%9B</t>
+  </si>
+  <si>
+    <t>立陶宛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B9%8C%E5%85%8B%E5%85%B0</t>
+  </si>
+  <si>
+    <t>乌克兰</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%91%A9%E5%B0%94%E5%A4%9A%E7%93%A6</t>
+  </si>
+  <si>
+    <t>摩尔多瓦</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%B0%94%E5%B9%B2%E5%8D%8A%E5%B2%9B</t>
+  </si>
+  <si>
+    <t>巴尔干半岛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E7%BE%85%E5%9F%83%E8%A5%BF%E4%BA%9E</t>
+  </si>
+  <si>
+    <t>克羅埃西亞</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E6%96%AF%E5%B0%BC%E4%BA%9A%E5%92%8C%E9%BB%91%E5%A1%9E%E5%93%A5%E7%BB%B4%E9%82%A3</t>
+  </si>
+  <si>
+    <t>波斯尼亚和黑塞哥维那</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%92%99%E7%89%B9%E5%85%A7%E5%93%A5%E7%BE%85</t>
+  </si>
+  <si>
+    <t>蒙特內哥羅</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%B0%94%E5%B7%B4%E5%B0%BC%E4%BA%9A</t>
+  </si>
+  <si>
+    <t>阿尔巴尼亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E9%A6%AC%E5%B0%BC%E4%BA%9E</t>
+  </si>
+  <si>
+    <t>羅馬尼亞</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E5%8A%A0%E5%88%A9%E4%BA%9E</t>
+  </si>
+  <si>
+    <t>保加利亞</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E5%B0%94%E7%BB%B4%E4%BA%9A</t>
+  </si>
+  <si>
+    <t>塞尔维亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E5%85%B6%E9%A0%93%E5%85%B1%E5%92%8C%E5%9C%8B</t>
+  </si>
+  <si>
+    <t>馬其頓共和國</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E6%AC%A7</t>
+  </si>
+  <si>
+    <t>南欧</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E8%85%8A</t>
+  </si>
+  <si>
+    <t>希腊</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B3%BD%E6%99%AE%E5%8B%92%E6%96%AF</t>
+  </si>
+  <si>
+    <t>賽普勒斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%91%A1%E8%90%84%E7%89%99</t>
+  </si>
+  <si>
+    <t>葡萄牙</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E9%81%93%E5%B0%94</t>
+  </si>
+  <si>
+    <t>安道尔</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E5%A4%96%E5%B1%9E%E5%9C%B0</t>
+  </si>
+  <si>
+    <t>海外属地</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%9B%B4%E5%B8%83%E7%BD%97%E9%99%80</t>
+  </si>
+  <si>
+    <t>直布罗陀</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%A0%B9%E8%A5%BF%E5%B2%9B</t>
+  </si>
+  <si>
+    <t>根西岛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%9B%BC%E5%B3%B6</t>
+  </si>
+  <si>
+    <t>曼島</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%BE%A4%E8%A5%BF</t>
+  </si>
+  <si>
+    <t>澤西</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%8F%9A%E9%A6%AC%E5%BB%B6%E5%B3%B6</t>
+  </si>
+  <si>
+    <t>揚馬延島</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E7%93%A6%E5%B0%94%E5%B7%B4%E7%BE%A4%E5%B2%9B</t>
+  </si>
+  <si>
+    <t>斯瓦尔巴群岛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E7%BD%97%E7%BE%A4%E5%B2%9B</t>
+  </si>
+  <si>
+    <t>法罗群岛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E7%88%BE%E4%BB%96%E9%A8%8E%E5%A3%AB%E5%9C%98</t>
+  </si>
+  <si>
+    <t>馬爾他騎士團</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%89%B2%E9%9B%B7%E6%96%AF</t>
+  </si>
+  <si>
+    <t>色雷斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E5%93%88%E8%90%A8%E5%85%8B%E6%96%AF%E5%9D%A6%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>西哈萨克斯坦州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%93%88%E8%90%A8%E5%85%8B%E6%96%AF%E5%9D%A6</t>
+  </si>
+  <si>
+    <t>哈萨克斯坦</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%AB%98%E5%8A%A0%E7%B4%A2</t>
+  </si>
+  <si>
+    <t>高加索</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E5%9C%B0%E7%90%86%E7%B4%A2%E5%BC%95</t>
+  </si>
+  <si>
+    <t>世界地理索引</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E6%B4%B2</t>
+  </si>
+  <si>
+    <t>非洲</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E6%B4%B2</t>
+  </si>
+  <si>
+    <t>美洲</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E6%9E%81%E6%B4%B2</t>
+  </si>
+  <si>
+    <t>南极洲</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9B%BD%E9%A6%96%E9%83%BD%E5%88%97%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>各国首都列表</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E8%A5%BF%E6%B4%8B</t>
+  </si>
+  <si>
+    <t>大西洋</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E8%80%B3%E4%BB%96</t>
+  </si>
+  <si>
+    <t>马耳他</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%88%A9%E9%98%BF%E9%87%8C%E6%B5%B7</t>
+  </si>
+  <si>
+    <t>巴利阿里海</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%88%A9%E9%98%BF%E9%87%8C%E7%BE%A4%E5%B2%9B</t>
+  </si>
+  <si>
+    <t>巴利阿里群岛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E8%A5%BF%E5%98%89%E5%B2%9B</t>
+  </si>
+  <si>
+    <t>科西嘉岛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%BB%91%E5%B1%B1%E5%85%B1%E5%92%8C%E5%9B%BD</t>
+  </si>
+  <si>
+    <t>黑山共和国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%88%B1%E7%90%B4%E6%B5%B7</t>
+  </si>
+  <si>
+    <t>爱琴海</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%BE%BE%E8%BE%BE%E5%B0%BC%E5%B0%94%E6%B5%B7%E5%B3%A1</t>
+  </si>
+  <si>
+    <t>达达尼尔海峡</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E5%B0%94%E9%A9%AC%E6%8B%89%E6%B5%B7</t>
+  </si>
+  <si>
+    <t>马尔马拉海</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%9A%E6%96%AF%E6%99%AE%E9%B2%81%E6%96%AF%E6%B5%B7%E5%B3%A1</t>
+  </si>
+  <si>
+    <t>博斯普鲁斯海峡</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%BB%91%E6%B5%B7</t>
+  </si>
+  <si>
+    <t>黑海</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E5%85%8B%E6%8B%89%E6%B3%BD%E6%96%AF</t>
+  </si>
+  <si>
+    <t>基克拉泽斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E9%87%8C%E7%89%B9%E5%B2%9B</t>
+  </si>
+  <si>
+    <t>克里特岛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%AA%81%E5%B0%BC%E8%A5%BF%E4%BA%9E</t>
+  </si>
+  <si>
+    <t>突尼西亞</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E8%B3%BD%E6%99%AE%E5%8B%92%E6%96%AF%E5%9C%9F%E8%80%B3%E5%85%B6%E5%85%B1%E5%92%8C%E5%9C%8B</t>
+  </si>
+  <si>
+    <t>北賽普勒斯土耳其共和國</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E5%85%8B%E7%BE%85%E6%8F%90%E5%88%A9%E8%88%87%E5%BE%B7%E5%87%B1%E5%88%A9%E4%BA%9E</t>
+  </si>
+  <si>
+    <t>亞克羅提利與德凱利亞</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8F%99%E5%88%A9%E4%BA%9A</t>
+  </si>
+  <si>
+    <t>叙利亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BB%A5%E8%89%B2%E5%88%97</t>
+  </si>
+  <si>
+    <t>以色列</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E6%97%A6%E6%B2%B3%E8%A5%BF%E5%B2%B8</t>
+  </si>
+  <si>
+    <t>约旦河西岸</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E6%B2%99%E5%9C%B0%E5%B8%A6</t>
+  </si>
+  <si>
+    <t>加沙地带</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E5%A5%88%E5%8D%8A%E5%B2%9B</t>
+  </si>
+  <si>
+    <t>西奈半岛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9F%83%E5%8F%8A</t>
+  </si>
+  <si>
+    <t>埃及</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%88%A9%E6%AF%94%E4%BA%9A</t>
+  </si>
+  <si>
+    <t>利比亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%B0%94%E5%8F%8A%E5%88%A9%E4%BA%9A</t>
+  </si>
+  <si>
+    <t>阿尔及利亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%B0%94%E6%B2%83%E5%85%B0%E6%B5%B7</t>
+  </si>
+  <si>
+    <t>阿尔沃兰海</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%9B%B4%E5%B8%83%E7%BE%85%E9%99%80%E6%B5%B7%E5%B3%BD</t>
+  </si>
+  <si>
+    <t>直布羅陀海峽</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E8%B3%BD%E6%99%AE%E5%8B%92%E6%96%AF</t>
+  </si>
+  <si>
+    <t>北賽普勒斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%8B%92%E6%96%AF%E5%9D%A6%E5%9C%8B</t>
+  </si>
+  <si>
+    <t>巴勒斯坦國</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E5%9F%9F</t>
+  </si>
+  <si>
+    <t>海域</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%85%AB%E5%9B%BD%E9%9B%86%E5%9B%A2</t>
+  </si>
+  <si>
+    <t>八国集团</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%85%AB%E5%9B%BD%E9%9B%86%E5%9B%A2%E5%90%8C%E4%BA%94%E5%9B%BD</t>
+  </si>
+  <si>
+    <t>八国集团同五国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E7%BE%85%E6%96%AF</t>
+  </si>
+  <si>
+    <t>俄羅斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%8D%8E%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9B%BD</t>
+  </si>
+  <si>
+    <t>中华人民共和国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A2%A8%E8%A5%BF%E5%93%A5</t>
+  </si>
+  <si>
+    <t>墨西哥</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E9%9D%9E</t>
+  </si>
+  <si>
+    <t>南非</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/20%E5%9B%BD%E9%9B%86%E5%9B%A2</t>
+  </si>
+  <si>
+    <t>20国集团</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AC%A7%E6%B4%B2%E8%81%94%E7%9B%9F</t>
+  </si>
+  <si>
+    <t>欧洲联盟</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E5%B0%BC</t>
+  </si>
+  <si>
+    <t>印尼</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B2%99%E7%89%B9%E9%98%BF%E6%8B%89%E4%BC%AF</t>
+  </si>
+  <si>
+    <t>沙特阿拉伯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E9%9F%A9%E6%B0%91%E5%9B%BD</t>
+  </si>
+  <si>
+    <t>大韩民国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD</t>
+  </si>
+  <si>
+    <t>美国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AC%A7%E6%B4%B2%E8%81%94%E7%9B%9F%E6%88%90%E5%91%98%E5%9B%BD</t>
+  </si>
+  <si>
+    <t>欧洲联盟成员国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E5%88%A9%E6%99%82</t>
+  </si>
+  <si>
+    <t>比利時</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E5%8A%A0%E5%88%A9%E4%BA%9A</t>
+  </si>
+  <si>
+    <t>保加利亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%B9%E9%BA%A5</t>
+  </si>
+  <si>
+    <t>丹麥</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E8%98%AD</t>
+  </si>
+  <si>
+    <t>荷蘭</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E4%B8%AD%E6%B5%B7%E8%81%AF%E7%9B%9F</t>
+  </si>
+  <si>
+    <t>地中海聯盟</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AF%9B%E9%87%8C%E5%A1%94%E5%B0%BC%E4%BA%9A</t>
+  </si>
+  <si>
+    <t>毛里塔尼亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E6%97%A6</t>
+  </si>
+  <si>
+    <t>约旦</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E5%A4%A7%E8%A5%BF%E6%B4%8B%E5%85%AC%E7%BA%A6%E7%BB%84%E7%BB%87</t>
+  </si>
+  <si>
+    <t>北大西洋公约组织</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/NATO_summit</t>
+  </si>
+  <si>
+    <t>en-NATO summit</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/NATO_Operations</t>
+  </si>
+  <si>
+    <t>en-NATO Operations</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E7%B4%84%E6%93%B4%E5%BC%B5</t>
+  </si>
+  <si>
+    <t>北約擴張</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/North_Atlantic_Council</t>
+  </si>
+  <si>
+    <t>en-North Atlantic Council</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AC%A7%E6%B4%B2%E7%9B%9F%E5%86%9B%E6%9C%80%E9%AB%98%E5%8F%B8%E4%BB%A4%E9%83%A8</t>
+  </si>
+  <si>
+    <t>欧洲盟军最高司令部</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Allied_Command_Transformation</t>
+  </si>
+  <si>
+    <t>en-Allied Command Transformation</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/NATO_Parliamentary_Assembly</t>
+  </si>
+  <si>
+    <t>en-NATO Parliamentary Assembly</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E7%B4%84%E7%A7%98%E6%9B%B8%E9%95%B7</t>
+  </si>
+  <si>
+    <t>北約秘書長</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Chairman_of_the_NATO_Military_Committee</t>
+  </si>
+  <si>
+    <t>en-Chairman of the NATO Military Committee</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AC%A7%E6%B4%B2%E7%9B%9F%E5%86%9B%E6%9C%80%E9%AB%98%E5%8F%B8%E4%BB%A4</t>
+  </si>
+  <si>
+    <t>欧洲盟军最高司令</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Supreme_Allied_Commander_Transformation</t>
+  </si>
+  <si>
+    <t>en-Supreme Allied Commander Transformation</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Army_of_the_Czech_Republic</t>
+  </si>
+  <si>
+    <t>en-Army of the Czech Republic</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Estonia_Defence_Forces</t>
+  </si>
+  <si>
+    <t>en-Estonia Defence Forces</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Military_of_Iceland</t>
+  </si>
+  <si>
+    <t>en-Military of Iceland</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Latvian_National_Armed_Forces</t>
+  </si>
+  <si>
+    <t>en-Latvian National Armed Forces</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Lithuanian_Armed_Forces</t>
+  </si>
+  <si>
+    <t>en-Lithuanian Armed Forces</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BD%97%E9%A9%AC%E5%B0%BC%E4%BA%9A%E6%AD%A6%E8%A3%85%E9%83%A8%E9%98%9F</t>
+  </si>
+  <si>
+    <t>罗马尼亚武装部队</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Slovak_Armed_Forces</t>
+  </si>
+  <si>
+    <t>en-Slovak Armed Forces</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Slovenian_Armed_Forces</t>
+  </si>
+  <si>
+    <t>en-Slovenian Armed Forces</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Military_of_Montenegro</t>
+  </si>
+  <si>
+    <t>en-Military of Montenegro</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Foreign_relations_of_NATO</t>
+  </si>
+  <si>
+    <t>en-Foreign relations of NATO</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Atlantic_Treaty_Association</t>
+  </si>
+  <si>
+    <t>en-Atlantic Treaty Association</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Euro-Atlantic_Partnership_Council</t>
+  </si>
+  <si>
+    <t>en-Euro-Atlantic Partnership Council</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%BB%E8%A6%81%E9%9D%9E%E5%8C%97%E7%B4%84%E7%9B%9F%E5%8F%8B</t>
+  </si>
+  <si>
+    <t>主要非北約盟友</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Mediterranean_Dialogue</t>
+  </si>
+  <si>
+    <t>en-Mediterranean Dialogue</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Istanbul_Cooperation_Initiative</t>
+  </si>
+  <si>
+    <t>en-Istanbul Cooperation Initiative</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%92%8C%E5%B9%B3%E4%BC%99%E4%BC%B4%E5%85%B3%E7%B3%BB%E8%AE%A1%E5%88%92</t>
+  </si>
+  <si>
+    <t>和平伙伴关系计划</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E4%B8%81%E8%AF%AD%E8%81%94%E7%9B%9F</t>
+  </si>
+  <si>
+    <t>拉丁语联盟</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E7%BE%8E%E6%B4%B2</t>
+  </si>
+  <si>
+    <t>北美洲</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E6%8B%BF%E9%A9%AC</t>
+  </si>
+  <si>
+    <t>巴拿马</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B0%BC%E5%8A%A0%E6%8B%89%E7%93%9C</t>
+  </si>
+  <si>
+    <t>尼加拉瓜</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%93%A5%E6%96%AF%E8%BE%BE%E9%BB%8E%E5%8A%A0</t>
+  </si>
+  <si>
+    <t>哥斯达黎加</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%90%A8%E5%B0%94%E7%93%A6%E5%A4%9A</t>
+  </si>
+  <si>
+    <t>萨尔瓦多</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B4%AA%E9%83%BD%E6%8B%89%E6%96%AF</t>
+  </si>
+  <si>
+    <t>洪都拉斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%B1%E5%9C%B0%E9%A9%AC%E6%8B%89</t>
+  </si>
+  <si>
+    <t>危地马拉</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E6%98%8E%E5%B0%BC%E5%8A%A0</t>
+  </si>
+  <si>
+    <t>多明尼加</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%B7%B4</t>
+  </si>
+  <si>
+    <t>古巴</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E5%9C%B0</t>
+  </si>
+  <si>
+    <t>海地</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E7%BE%8E%E6%B4%B2</t>
+  </si>
+  <si>
+    <t>南美洲</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%8E%BB%E5%88%A9%E7%B6%AD%E4%BA%9E</t>
+  </si>
+  <si>
+    <t>玻利維亞</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%99%BA%E5%88%A9</t>
+  </si>
+  <si>
+    <t>智利</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A7%98%E9%B2%81</t>
+  </si>
+  <si>
+    <t>秘鲁</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E6%8B%89%E5%9C%AD</t>
+  </si>
+  <si>
+    <t>巴拉圭</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%93%A5%E4%BC%A6%E6%AF%94%E4%BA%9A</t>
+  </si>
+  <si>
+    <t>哥伦比亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8E%84%E7%93%9C%E5%A4%9A%E5%B0%94</t>
+  </si>
+  <si>
+    <t>厄瓜多尔</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E5%93%A5%E6%8B%89</t>
+  </si>
+  <si>
+    <t>安哥拉</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8E%AB%E6%A1%91%E6%AF%94%E5%85%8B</t>
+  </si>
+  <si>
+    <t>莫桑比克</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BD%9B%E5%BE%97%E8%A7%92</t>
+  </si>
+  <si>
+    <t>佛得角</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%89%B9%E8%BF%AA%E7%93%A6</t>
+  </si>
+  <si>
+    <t>科特迪瓦</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B9%BE%E5%85%A7%E4%BA%9E%E6%AF%94%E7%B4%A2</t>
+  </si>
+  <si>
+    <t>幾內亞比索</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E5%A4%9A%E7%BE%8E%E5%92%8C%E6%99%AE%E6%9E%97%E8%A5%BF%E6%AF%94</t>
+  </si>
+  <si>
+    <t>圣多美和普林西比</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E5%86%85%E5%8A%A0%E5%B0%94</t>
+  </si>
+  <si>
+    <t>塞内加尔</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8F%B2%E5%BE%8B%E5%AE%BE</t>
+  </si>
+  <si>
+    <t>菲律宾</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%9C%E5%B8%9D%E6%B1%B6</t>
+  </si>
+  <si>
+    <t>东帝汶</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E6%B3%B0%E7%BE%85%E5%B0%BC%E4%BA%9E%E8%AA%9E</t>
+  </si>
+  <si>
+    <t>加泰羅尼亞語</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%91%A1%E8%90%84%E7%89%99%E8%AA%9E</t>
+  </si>
+  <si>
+    <t>葡萄牙語</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99%E8%AA%9E</t>
+  </si>
+  <si>
+    <t>西班牙語</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E9%A6%AC%E5%B0%BC%E4%BA%9E%E8%AA%9E</t>
+  </si>
+  <si>
+    <t>羅馬尼亞語</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BC%A6%E6%95%A6</t>
+  </si>
+  <si>
+    <t>伦敦</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%9F%8F%E6%9E%97</t>
+  </si>
+  <si>
+    <t>柏林</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%A7%86%E6%96%AF%E7%89%B9%E4%B8%B9</t>
+  </si>
+  <si>
+    <t>阿姆斯特丹</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E9%B2%81%E5%A1%9E%E5%B0%94</t>
+  </si>
+  <si>
+    <t>布鲁塞尔</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%9B%A7%E6%A3%AE%E5%A0%A1%E5%B8%82</t>
+  </si>
+  <si>
+    <t>盧森堡市</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BC%AF%E5%B0%94%E5%B0%BC</t>
+  </si>
+  <si>
+    <t>伯尔尼</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BB%B4%E4%B9%9F%E7%BA%B3</t>
+  </si>
+  <si>
+    <t>维也纳</t>
+  </si>
+  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%88%B1%E5%B0%94%E5%85%B0%E5%85%B1%E5%92%8C%E5%9B%BD</t>
   </si>
   <si>
     <t>爱尔兰共和国</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E5%85%B0%E7%8E%8B%E5%9B%BD</t>
-  </si>
-  <si>
-    <t>荷兰王国</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E5%88%A9%E6%97%B6</t>
-  </si>
-  <si>
-    <t>比利时</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%A2%E6%A3%AE%E5%A0%A1</t>
-  </si>
-  <si>
-    <t>卢森堡</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E6%AC%A7</t>
-  </si>
-  <si>
-    <t>北欧</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%B9%E9%BA%A6</t>
-  </si>
-  <si>
-    <t>丹麦</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8A%AC%E5%85%B0</t>
-  </si>
-  <si>
-    <t>芬兰</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%8C%AA%E5%A8%81</t>
-  </si>
-  <si>
-    <t>挪威</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%86%B0%E5%B2%9B</t>
-  </si>
-  <si>
-    <t>冰岛</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E6%AC%A7</t>
-  </si>
-  <si>
-    <t>中欧</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9B%BD</t>
-  </si>
-  <si>
-    <t>德国</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E5%85%B0</t>
-  </si>
-  <si>
-    <t>波兰</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%8D%B7%E5%85%8B</t>
-  </si>
-  <si>
-    <t>捷克</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E6%B4%9B%E4%BC%90%E5%85%8B</t>
-  </si>
-  <si>
-    <t>斯洛伐克</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8C%88%E7%89%99%E5%88%A9</t>
-  </si>
-  <si>
-    <t>匈牙利</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%88%97%E6%94%AF%E6%95%A6%E6%96%AF%E7%99%BB</t>
-  </si>
-  <si>
-    <t>列支敦斯登</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%9C%E6%AC%A7</t>
-  </si>
-  <si>
-    <t>东欧</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E4%BF%84</t>
-  </si>
-  <si>
-    <t>歐俄</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E7%BD%97%E6%96%AF</t>
-  </si>
-  <si>
-    <t>俄罗斯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%99%BD%E4%BF%84%E7%BD%97%E6%96%AF</t>
-  </si>
-  <si>
-    <t>白俄罗斯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%88%B1%E6%B2%99%E5%B0%BC%E4%BA%9A</t>
-  </si>
-  <si>
-    <t>爱沙尼亚</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E8%84%AB%E7%B6%AD%E4%BA%9E</t>
-  </si>
-  <si>
-    <t>拉脫維亞</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%AB%8B%E9%99%B6%E5%AE%9B</t>
-  </si>
-  <si>
-    <t>立陶宛</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B9%8C%E5%85%8B%E5%85%B0</t>
-  </si>
-  <si>
-    <t>乌克兰</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%91%A9%E5%B0%94%E5%A4%9A%E7%93%A6</t>
-  </si>
-  <si>
-    <t>摩尔多瓦</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%B0%94%E5%B9%B2</t>
-  </si>
-  <si>
-    <t>巴尔干</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E7%BE%85%E5%9F%83%E8%A5%BF%E4%BA%9E</t>
-  </si>
-  <si>
-    <t>克羅埃西亞</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E6%96%AF%E5%B0%BC%E4%BA%9A%E5%92%8C%E9%BB%91%E5%A1%9E%E5%93%A5%E7%BB%B4%E9%82%A3</t>
-  </si>
-  <si>
-    <t>波斯尼亚和黑塞哥维那</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%92%99%E7%89%B9%E5%85%A7%E5%93%A5%E7%BE%85</t>
-  </si>
-  <si>
-    <t>蒙特內哥羅</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%B0%94%E5%B7%B4%E5%B0%BC%E4%BA%9A</t>
-  </si>
-  <si>
-    <t>阿尔巴尼亚</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E9%A6%AC%E5%B0%BC%E4%BA%9E</t>
-  </si>
-  <si>
-    <t>羅馬尼亞</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E5%8A%A0%E5%88%A9%E4%BA%9E</t>
-  </si>
-  <si>
-    <t>保加利亞</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E5%B0%94%E7%BB%B4%E4%BA%9A</t>
-  </si>
-  <si>
-    <t>塞尔维亚</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E5%85%B6%E9%A0%93%E5%85%B1%E5%92%8C%E5%9C%8B</t>
-  </si>
-  <si>
-    <t>馬其頓共和國</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E6%AC%A7</t>
-  </si>
-  <si>
-    <t>南欧</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E8%85%8A</t>
-  </si>
-  <si>
-    <t>希腊</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B3%BD%E6%99%AE%E5%8B%92%E6%96%AF</t>
-  </si>
-  <si>
-    <t>賽普勒斯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%91%A1%E8%90%84%E7%89%99</t>
-  </si>
-  <si>
-    <t>葡萄牙</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E9%81%93%E5%B0%94</t>
-  </si>
-  <si>
-    <t>安道尔</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B1%AC%E5%9C%B0</t>
-  </si>
-  <si>
-    <t>屬地</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%9B%B4%E5%B8%83%E7%BD%97%E9%99%80</t>
-  </si>
-  <si>
-    <t>直布罗陀</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%A0%B9%E8%A5%BF%E5%B2%9B</t>
-  </si>
-  <si>
-    <t>根西岛</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9B%BC%E5%B3%B6</t>
-  </si>
-  <si>
-    <t>曼島</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%BE%A4%E8%A5%BF</t>
-  </si>
-  <si>
-    <t>澤西</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%8F%9A%E9%A6%AC%E5%BB%B6%E5%B3%B6</t>
-  </si>
-  <si>
-    <t>揚馬延島</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E7%93%A6%E5%B0%94%E5%B7%B4%E7%BE%A4%E5%B2%9B</t>
-  </si>
-  <si>
-    <t>斯瓦尔巴群岛</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E7%BD%97%E7%BE%A4%E5%B2%9B</t>
-  </si>
-  <si>
-    <t>法罗群岛</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E7%88%BE%E4%BB%96%E9%A8%8E%E5%A3%AB%E5%9C%98</t>
-  </si>
-  <si>
-    <t>馬爾他騎士團</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%89%B2%E9%9B%B7%E6%96%AF</t>
-  </si>
-  <si>
-    <t>色雷斯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%93%88%E8%90%A8%E5%85%8B%E6%96%AF%E5%9D%A6</t>
-  </si>
-  <si>
-    <t>哈萨克斯坦</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E5%93%88%E8%90%A8%E5%85%8B%E6%96%AF%E5%9D%A6%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>西哈萨克斯坦州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E5%9C%B0%E7%90%86%E7%B4%A2%E5%BC%95</t>
-  </si>
-  <si>
-    <t>世界地理索引</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E6%B4%B2</t>
-  </si>
-  <si>
-    <t>非洲</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E6%B4%B2</t>
-  </si>
-  <si>
-    <t>美洲</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E6%9E%81%E6%B4%B2</t>
-  </si>
-  <si>
-    <t>南极洲</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9B%BD%E9%A6%96%E9%83%BD%E5%88%97%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>各国首都列表</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E8%A5%BF%E6%B4%8B</t>
-  </si>
-  <si>
-    <t>大西洋</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E8%80%B3%E4%BB%96</t>
-  </si>
-  <si>
-    <t>马耳他</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%88%A9%E9%98%BF%E9%87%8C%E6%B5%B7</t>
-  </si>
-  <si>
-    <t>巴利阿里海</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%88%A9%E9%98%BF%E9%87%8C%E7%BE%A4%E5%B2%9B</t>
-  </si>
-  <si>
-    <t>巴利阿里群岛</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E8%A5%BF%E5%98%89%E5%B2%9B</t>
-  </si>
-  <si>
-    <t>科西嘉岛</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%BB%91%E5%B1%B1%E5%85%B1%E5%92%8C%E5%9B%BD</t>
-  </si>
-  <si>
-    <t>黑山共和国</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%88%B1%E7%90%B4%E6%B5%B7</t>
-  </si>
-  <si>
-    <t>爱琴海</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%BE%BE%E8%BE%BE%E5%B0%BC%E5%B0%94%E6%B5%B7%E5%B3%A1</t>
-  </si>
-  <si>
-    <t>达达尼尔海峡</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E5%B0%94%E9%A9%AC%E6%8B%89%E6%B5%B7</t>
-  </si>
-  <si>
-    <t>马尔马拉海</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%9A%E6%96%AF%E6%99%AE%E9%B2%81%E6%96%AF%E6%B5%B7%E5%B3%A1</t>
-  </si>
-  <si>
-    <t>博斯普鲁斯海峡</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%BB%91%E6%B5%B7</t>
-  </si>
-  <si>
-    <t>黑海</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E5%85%8B%E6%8B%89%E6%B3%BD%E6%96%AF</t>
-  </si>
-  <si>
-    <t>基克拉泽斯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E9%87%8C%E7%89%B9%E5%B2%9B</t>
-  </si>
-  <si>
-    <t>克里特岛</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%AA%81%E5%B0%BC%E8%A5%BF%E4%BA%9E</t>
-  </si>
-  <si>
-    <t>突尼西亞</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E8%B3%BD%E6%99%AE%E5%8B%92%E6%96%AF%E5%9C%9F%E8%80%B3%E5%85%B6%E5%85%B1%E5%92%8C%E5%9C%8B</t>
-  </si>
-  <si>
-    <t>北賽普勒斯土耳其共和國</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E5%85%8B%E7%BE%85%E6%8F%90%E5%88%A9%E8%88%87%E5%BE%B7%E5%87%B1%E5%88%A9%E4%BA%9E</t>
-  </si>
-  <si>
-    <t>亞克羅提利與德凱利亞</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8F%99%E5%88%A9%E4%BA%9A</t>
-  </si>
-  <si>
-    <t>叙利亚</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BB%A5%E8%89%B2%E5%88%97</t>
-  </si>
-  <si>
-    <t>以色列</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E6%97%A6%E6%B2%B3%E8%A5%BF%E5%B2%B8</t>
-  </si>
-  <si>
-    <t>约旦河西岸</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E6%B2%99%E5%9C%B0%E5%B8%A6</t>
-  </si>
-  <si>
-    <t>加沙地带</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E5%A5%88%E5%8D%8A%E5%B2%9B</t>
-  </si>
-  <si>
-    <t>西奈半岛</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9F%83%E5%8F%8A</t>
-  </si>
-  <si>
-    <t>埃及</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%88%A9%E6%AF%94%E4%BA%9A</t>
-  </si>
-  <si>
-    <t>利比亚</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%B0%94%E5%8F%8A%E5%88%A9%E4%BA%9A</t>
-  </si>
-  <si>
-    <t>阿尔及利亚</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%B0%94%E6%B2%83%E5%85%B0%E6%B5%B7</t>
-  </si>
-  <si>
-    <t>阿尔沃兰海</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%9B%B4%E5%B8%83%E7%BE%85%E9%99%80%E6%B5%B7%E5%B3%BD</t>
-  </si>
-  <si>
-    <t>直布羅陀海峽</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E8%B3%BD%E6%99%AE%E5%8B%92%E6%96%AF</t>
-  </si>
-  <si>
-    <t>北賽普勒斯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%8B%92%E6%96%AF%E5%9D%A6%E5%9C%8B</t>
-  </si>
-  <si>
-    <t>巴勒斯坦國</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E5%9F%9F</t>
-  </si>
-  <si>
-    <t>海域</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%85%AB%E5%9B%BD%E9%9B%86%E5%9B%A2</t>
-  </si>
-  <si>
-    <t>八国集团</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%85%AB%E5%9B%BD%E9%9B%86%E5%9B%A2%E5%90%8C%E4%BA%94%E5%9B%BD</t>
-  </si>
-  <si>
-    <t>八国集团同五国</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E7%BE%85%E6%96%AF</t>
-  </si>
-  <si>
-    <t>俄羅斯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%8D%8E%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9B%BD</t>
-  </si>
-  <si>
-    <t>中华人民共和国</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A2%A8%E8%A5%BF%E5%93%A5</t>
-  </si>
-  <si>
-    <t>墨西哥</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E9%9D%9E</t>
-  </si>
-  <si>
-    <t>南非</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/20%E5%9B%BD%E9%9B%86%E5%9B%A2</t>
-  </si>
-  <si>
-    <t>20国集团</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AC%A7%E6%B4%B2%E8%81%94%E7%9B%9F</t>
-  </si>
-  <si>
-    <t>欧洲联盟</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E5%B0%BC</t>
-  </si>
-  <si>
-    <t>印尼</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B2%99%E7%89%B9%E9%98%BF%E6%8B%89%E4%BC%AF</t>
-  </si>
-  <si>
-    <t>沙特阿拉伯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E9%9F%A9%E6%B0%91%E5%9B%BD</t>
-  </si>
-  <si>
-    <t>大韩民国</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD</t>
-  </si>
-  <si>
-    <t>美国</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AC%A7%E6%B4%B2%E8%81%94%E7%9B%9F%E6%88%90%E5%91%98%E5%9B%BD</t>
-  </si>
-  <si>
-    <t>欧洲联盟成员国</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E5%88%A9%E6%99%82</t>
-  </si>
-  <si>
-    <t>比利時</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E5%8A%A0%E5%88%A9%E4%BA%9A</t>
-  </si>
-  <si>
-    <t>保加利亚</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%B9%E9%BA%A5</t>
-  </si>
-  <si>
-    <t>丹麥</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E8%98%AD</t>
-  </si>
-  <si>
-    <t>荷蘭</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E4%B8%AD%E6%B5%B7%E8%81%AF%E7%9B%9F</t>
-  </si>
-  <si>
-    <t>地中海聯盟</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AF%9B%E9%87%8C%E5%A1%94%E5%B0%BC%E4%BA%9A</t>
-  </si>
-  <si>
-    <t>毛里塔尼亚</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E6%97%A6</t>
-  </si>
-  <si>
-    <t>约旦</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E5%A4%A7%E8%A5%BF%E6%B4%8B%E5%85%AC%E7%BA%A6%E7%BB%84%E7%BB%87</t>
-  </si>
-  <si>
-    <t>北大西洋公约组织</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/NATO_summit</t>
-  </si>
-  <si>
-    <t>en-NATO summit</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/NATO_Operations</t>
-  </si>
-  <si>
-    <t>en-NATO Operations</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E7%B4%84%E6%93%B4%E5%BC%B5</t>
-  </si>
-  <si>
-    <t>北約擴張</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/North_Atlantic_Council</t>
-  </si>
-  <si>
-    <t>en-North Atlantic Council</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AC%A7%E6%B4%B2%E7%9B%9F%E5%86%9B%E6%9C%80%E9%AB%98%E5%8F%B8%E4%BB%A4%E9%83%A8</t>
-  </si>
-  <si>
-    <t>欧洲盟军最高司令部</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Allied_Command_Transformation</t>
-  </si>
-  <si>
-    <t>en-Allied Command Transformation</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/NATO_Parliamentary_Assembly</t>
-  </si>
-  <si>
-    <t>en-NATO Parliamentary Assembly</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E7%B4%84%E7%A7%98%E6%9B%B8%E9%95%B7</t>
-  </si>
-  <si>
-    <t>北約秘書長</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Chairman_of_the_NATO_Military_Committee</t>
-  </si>
-  <si>
-    <t>en-Chairman of the NATO Military Committee</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AC%A7%E6%B4%B2%E7%9B%9F%E5%86%9B%E6%9C%80%E9%AB%98%E5%8F%B8%E4%BB%A4</t>
-  </si>
-  <si>
-    <t>欧洲盟军最高司令</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Supreme_Allied_Commander_Transformation</t>
-  </si>
-  <si>
-    <t>en-Supreme Allied Commander Transformation</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Army_of_the_Czech_Republic</t>
-  </si>
-  <si>
-    <t>en-Army of the Czech Republic</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Estonia_Defence_Forces</t>
-  </si>
-  <si>
-    <t>en-Estonia Defence Forces</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Military_of_Iceland</t>
-  </si>
-  <si>
-    <t>en-Military of Iceland</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Latvian_National_Armed_Forces</t>
-  </si>
-  <si>
-    <t>en-Latvian National Armed Forces</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Lithuanian_Armed_Forces</t>
-  </si>
-  <si>
-    <t>en-Lithuanian Armed Forces</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BD%97%E9%A9%AC%E5%B0%BC%E4%BA%9A%E6%AD%A6%E8%A3%85%E9%83%A8%E9%98%9F</t>
-  </si>
-  <si>
-    <t>罗马尼亚武装部队</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Slovak_Armed_Forces</t>
-  </si>
-  <si>
-    <t>en-Slovak Armed Forces</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Slovenian_Armed_Forces</t>
-  </si>
-  <si>
-    <t>en-Slovenian Armed Forces</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Military_of_Montenegro</t>
-  </si>
-  <si>
-    <t>en-Military of Montenegro</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Foreign_relations_of_NATO</t>
-  </si>
-  <si>
-    <t>en-Foreign relations of NATO</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Atlantic_Treaty_Association</t>
-  </si>
-  <si>
-    <t>en-Atlantic Treaty Association</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Euro-Atlantic_Partnership_Council</t>
-  </si>
-  <si>
-    <t>en-Euro-Atlantic Partnership Council</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%BB%E8%A6%81%E9%9D%9E%E5%8C%97%E7%B4%84%E7%9B%9F%E5%8F%8B</t>
-  </si>
-  <si>
-    <t>主要非北約盟友</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Mediterranean_Dialogue</t>
-  </si>
-  <si>
-    <t>en-Mediterranean Dialogue</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Istanbul_Cooperation_Initiative</t>
-  </si>
-  <si>
-    <t>en-Istanbul Cooperation Initiative</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%92%8C%E5%B9%B3%E4%BC%99%E4%BC%B4%E5%85%B3%E7%B3%BB%E8%AE%A1%E5%88%92</t>
-  </si>
-  <si>
-    <t>和平伙伴关系计划</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E4%B8%81%E8%AF%AD%E8%81%94%E7%9B%9F</t>
-  </si>
-  <si>
-    <t>拉丁语联盟</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E7%BE%8E%E6%B4%B2</t>
-  </si>
-  <si>
-    <t>北美洲</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E6%8B%BF%E9%A9%AC</t>
-  </si>
-  <si>
-    <t>巴拿马</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B0%BC%E5%8A%A0%E6%8B%89%E7%93%9C</t>
-  </si>
-  <si>
-    <t>尼加拉瓜</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%93%A5%E6%96%AF%E8%BE%BE%E9%BB%8E%E5%8A%A0</t>
-  </si>
-  <si>
-    <t>哥斯达黎加</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%90%A8%E5%B0%94%E7%93%A6%E5%A4%9A</t>
-  </si>
-  <si>
-    <t>萨尔瓦多</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B4%AA%E9%83%BD%E6%8B%89%E6%96%AF</t>
-  </si>
-  <si>
-    <t>洪都拉斯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%B1%E5%9C%B0%E9%A9%AC%E6%8B%89</t>
-  </si>
-  <si>
-    <t>危地马拉</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E6%98%8E%E5%B0%BC%E5%8A%A0</t>
-  </si>
-  <si>
-    <t>多明尼加</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%B7%B4</t>
-  </si>
-  <si>
-    <t>古巴</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E5%9C%B0</t>
-  </si>
-  <si>
-    <t>海地</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E7%BE%8E%E6%B4%B2</t>
-  </si>
-  <si>
-    <t>南美洲</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%8E%BB%E5%88%A9%E7%B6%AD%E4%BA%9E</t>
-  </si>
-  <si>
-    <t>玻利維亞</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%99%BA%E5%88%A9</t>
-  </si>
-  <si>
-    <t>智利</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A7%98%E9%B2%81</t>
-  </si>
-  <si>
-    <t>秘鲁</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E6%8B%89%E5%9C%AD</t>
-  </si>
-  <si>
-    <t>巴拉圭</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%93%A5%E4%BC%A6%E6%AF%94%E4%BA%9A</t>
-  </si>
-  <si>
-    <t>哥伦比亚</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8E%84%E7%93%9C%E5%A4%9A%E5%B0%94</t>
-  </si>
-  <si>
-    <t>厄瓜多尔</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E5%93%A5%E6%8B%89</t>
-  </si>
-  <si>
-    <t>安哥拉</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8E%AB%E6%A1%91%E6%AF%94%E5%85%8B</t>
-  </si>
-  <si>
-    <t>莫桑比克</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BD%9B%E5%BE%97%E8%A7%92</t>
-  </si>
-  <si>
-    <t>佛得角</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%89%B9%E8%BF%AA%E7%93%A6</t>
-  </si>
-  <si>
-    <t>科特迪瓦</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B9%BE%E5%85%A7%E4%BA%9E%E6%AF%94%E7%B4%A2</t>
-  </si>
-  <si>
-    <t>幾內亞比索</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E5%A4%9A%E7%BE%8E%E5%92%8C%E6%99%AE%E6%9E%97%E8%A5%BF%E6%AF%94</t>
-  </si>
-  <si>
-    <t>圣多美和普林西比</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E5%86%85%E5%8A%A0%E5%B0%94</t>
-  </si>
-  <si>
-    <t>塞内加尔</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8F%B2%E5%BE%8B%E5%AE%BE</t>
-  </si>
-  <si>
-    <t>菲律宾</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%9C%E5%B8%9D%E6%B1%B6</t>
-  </si>
-  <si>
-    <t>东帝汶</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E6%B3%B0%E7%BE%85%E5%B0%BC%E4%BA%9E%E8%AA%9E</t>
-  </si>
-  <si>
-    <t>加泰羅尼亞語</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%91%A1%E8%90%84%E7%89%99%E8%AA%9E</t>
-  </si>
-  <si>
-    <t>葡萄牙語</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99%E8%AA%9E</t>
-  </si>
-  <si>
-    <t>西班牙語</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E9%A6%AC%E5%B0%BC%E4%BA%9E%E8%AA%9E</t>
-  </si>
-  <si>
-    <t>羅馬尼亞語</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BC%A6%E6%95%A6</t>
-  </si>
-  <si>
-    <t>伦敦</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9F%8F%E6%9E%97</t>
-  </si>
-  <si>
-    <t>柏林</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%A7%86%E6%96%AF%E7%89%B9%E4%B8%B9</t>
-  </si>
-  <si>
-    <t>阿姆斯特丹</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E9%B2%81%E5%A1%9E%E5%B0%94</t>
-  </si>
-  <si>
-    <t>布鲁塞尔</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%9B%A7%E6%A3%AE%E5%A0%A1%E5%B8%82</t>
-  </si>
-  <si>
-    <t>盧森堡市</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BC%AF%E5%B0%94%E5%B0%BC</t>
-  </si>
-  <si>
-    <t>伯尔尼</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BB%B4%E4%B9%9F%E7%BA%B3</t>
-  </si>
-  <si>
-    <t>维也纳</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%83%BD%E6%9F%8F%E6%9E%97</t>
@@ -8274,7 +8316,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1399"/>
+  <dimension ref="A1:I1405"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23814,7 +23856,7 @@
         <v>1008</v>
       </c>
       <c r="G536" t="n">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H536" t="s">
         <v>4</v>
@@ -41330,7 +41372,7 @@
         <v>2196</v>
       </c>
       <c r="G1140" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H1140" t="s">
         <v>4</v>
@@ -41446,7 +41488,7 @@
         <v>2204</v>
       </c>
       <c r="G1144" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H1144" t="s">
         <v>4</v>
@@ -41475,7 +41517,7 @@
         <v>2206</v>
       </c>
       <c r="G1145" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1145" t="s">
         <v>4</v>
@@ -41504,7 +41546,7 @@
         <v>2208</v>
       </c>
       <c r="G1146" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H1146" t="s">
         <v>4</v>
@@ -41533,7 +41575,7 @@
         <v>2210</v>
       </c>
       <c r="G1147" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H1147" t="s">
         <v>4</v>
@@ -41562,7 +41604,7 @@
         <v>2212</v>
       </c>
       <c r="G1148" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H1148" t="s">
         <v>4</v>
@@ -41591,7 +41633,7 @@
         <v>2214</v>
       </c>
       <c r="G1149" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H1149" t="s">
         <v>4</v>
@@ -41620,7 +41662,7 @@
         <v>2216</v>
       </c>
       <c r="G1150" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H1150" t="s">
         <v>4</v>
@@ -41678,7 +41720,7 @@
         <v>2220</v>
       </c>
       <c r="G1152" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H1152" t="s">
         <v>4</v>
@@ -41707,7 +41749,7 @@
         <v>2222</v>
       </c>
       <c r="G1153" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H1153" t="s">
         <v>4</v>
@@ -41736,7 +41778,7 @@
         <v>2224</v>
       </c>
       <c r="G1154" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H1154" t="s">
         <v>4</v>
@@ -41765,7 +41807,7 @@
         <v>2226</v>
       </c>
       <c r="G1155" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H1155" t="s">
         <v>4</v>
@@ -41794,7 +41836,7 @@
         <v>2228</v>
       </c>
       <c r="G1156" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H1156" t="s">
         <v>4</v>
@@ -41823,7 +41865,7 @@
         <v>2230</v>
       </c>
       <c r="G1157" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H1157" t="s">
         <v>4</v>
@@ -41881,7 +41923,7 @@
         <v>2234</v>
       </c>
       <c r="G1159" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H1159" t="s">
         <v>4</v>
@@ -41910,7 +41952,7 @@
         <v>2236</v>
       </c>
       <c r="G1160" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H1160" t="s">
         <v>4</v>
@@ -41939,7 +41981,7 @@
         <v>2238</v>
       </c>
       <c r="G1161" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H1161" t="s">
         <v>4</v>
@@ -42026,7 +42068,7 @@
         <v>2244</v>
       </c>
       <c r="G1164" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H1164" t="s">
         <v>4</v>
@@ -42055,7 +42097,7 @@
         <v>2246</v>
       </c>
       <c r="G1165" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H1165" t="s">
         <v>4</v>
@@ -42084,7 +42126,7 @@
         <v>2248</v>
       </c>
       <c r="G1166" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H1166" t="s">
         <v>4</v>
@@ -42113,7 +42155,7 @@
         <v>2250</v>
       </c>
       <c r="G1167" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1167" t="s">
         <v>4</v>
@@ -42142,7 +42184,7 @@
         <v>2252</v>
       </c>
       <c r="G1168" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H1168" t="s">
         <v>4</v>
@@ -42171,7 +42213,7 @@
         <v>2254</v>
       </c>
       <c r="G1169" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H1169" t="s">
         <v>4</v>
@@ -42229,7 +42271,7 @@
         <v>2258</v>
       </c>
       <c r="G1171" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H1171" t="s">
         <v>4</v>
@@ -42258,7 +42300,7 @@
         <v>2260</v>
       </c>
       <c r="G1172" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H1172" t="s">
         <v>4</v>
@@ -42287,7 +42329,7 @@
         <v>2262</v>
       </c>
       <c r="G1173" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H1173" t="s">
         <v>4</v>
@@ -42316,7 +42358,7 @@
         <v>2264</v>
       </c>
       <c r="G1174" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="H1174" t="s">
         <v>4</v>
@@ -42345,7 +42387,7 @@
         <v>2266</v>
       </c>
       <c r="G1175" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H1175" t="s">
         <v>4</v>
@@ -42374,7 +42416,7 @@
         <v>2268</v>
       </c>
       <c r="G1176" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H1176" t="s">
         <v>4</v>
@@ -42432,7 +42474,7 @@
         <v>2272</v>
       </c>
       <c r="G1178" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1178" t="s">
         <v>4</v>
@@ -42461,7 +42503,7 @@
         <v>2274</v>
       </c>
       <c r="G1179" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="H1179" t="s">
         <v>4</v>
@@ -42490,7 +42532,7 @@
         <v>2276</v>
       </c>
       <c r="G1180" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H1180" t="s">
         <v>4</v>
@@ -42519,7 +42561,7 @@
         <v>2278</v>
       </c>
       <c r="G1181" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="H1181" t="s">
         <v>4</v>
@@ -42548,7 +42590,7 @@
         <v>2280</v>
       </c>
       <c r="G1182" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H1182" t="s">
         <v>4</v>
@@ -42577,7 +42619,7 @@
         <v>2282</v>
       </c>
       <c r="G1183" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1183" t="s">
         <v>4</v>
@@ -42606,7 +42648,7 @@
         <v>2284</v>
       </c>
       <c r="G1184" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H1184" t="s">
         <v>4</v>
@@ -42635,7 +42677,7 @@
         <v>2286</v>
       </c>
       <c r="G1185" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H1185" t="s">
         <v>4</v>
@@ -42664,7 +42706,7 @@
         <v>2288</v>
       </c>
       <c r="G1186" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H1186" t="s">
         <v>4</v>
@@ -42693,7 +42735,7 @@
         <v>2290</v>
       </c>
       <c r="G1187" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H1187" t="s">
         <v>4</v>
@@ -42751,7 +42793,7 @@
         <v>2294</v>
       </c>
       <c r="G1189" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1189" t="s">
         <v>4</v>
@@ -42809,7 +42851,7 @@
         <v>2298</v>
       </c>
       <c r="G1191" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1191" t="s">
         <v>4</v>
@@ -42954,7 +42996,7 @@
         <v>2308</v>
       </c>
       <c r="G1196" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H1196" t="s">
         <v>4</v>
@@ -42983,7 +43025,7 @@
         <v>2310</v>
       </c>
       <c r="G1197" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H1197" t="s">
         <v>4</v>
@@ -43099,7 +43141,7 @@
         <v>2318</v>
       </c>
       <c r="G1201" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1201" t="s">
         <v>4</v>
@@ -43128,7 +43170,7 @@
         <v>2320</v>
       </c>
       <c r="G1202" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H1202" t="s">
         <v>4</v>
@@ -43157,7 +43199,7 @@
         <v>2322</v>
       </c>
       <c r="G1203" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H1203" t="s">
         <v>4</v>
@@ -43180,13 +43222,13 @@
         <v>1203</v>
       </c>
       <c r="E1204" t="s">
-        <v>2199</v>
+        <v>2323</v>
       </c>
       <c r="F1204" t="s">
-        <v>2200</v>
+        <v>2324</v>
       </c>
       <c r="G1204" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1204" t="s">
         <v>4</v>
@@ -43209,10 +43251,10 @@
         <v>1204</v>
       </c>
       <c r="E1205" t="s">
-        <v>2323</v>
+        <v>2325</v>
       </c>
       <c r="F1205" t="s">
-        <v>2324</v>
+        <v>2326</v>
       </c>
       <c r="G1205" t="n">
         <v>1</v>
@@ -43238,13 +43280,13 @@
         <v>1205</v>
       </c>
       <c r="E1206" t="s">
-        <v>891</v>
+        <v>2327</v>
       </c>
       <c r="F1206" t="s">
-        <v>892</v>
+        <v>2328</v>
       </c>
       <c r="G1206" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H1206" t="s">
         <v>4</v>
@@ -43267,10 +43309,10 @@
         <v>1206</v>
       </c>
       <c r="E1207" t="s">
-        <v>2261</v>
+        <v>2329</v>
       </c>
       <c r="F1207" t="s">
-        <v>2262</v>
+        <v>2330</v>
       </c>
       <c r="G1207" t="n">
         <v>2</v>
@@ -43296,13 +43338,13 @@
         <v>1207</v>
       </c>
       <c r="E1208" t="s">
-        <v>2325</v>
+        <v>2331</v>
       </c>
       <c r="F1208" t="s">
-        <v>2326</v>
+        <v>2332</v>
       </c>
       <c r="G1208" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1208" t="s">
         <v>4</v>
@@ -43325,13 +43367,13 @@
         <v>1208</v>
       </c>
       <c r="E1209" t="s">
-        <v>2257</v>
+        <v>2333</v>
       </c>
       <c r="F1209" t="s">
-        <v>2258</v>
+        <v>2334</v>
       </c>
       <c r="G1209" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1209" t="s">
         <v>4</v>
@@ -43354,10 +43396,10 @@
         <v>1209</v>
       </c>
       <c r="E1210" t="s">
-        <v>2185</v>
+        <v>2199</v>
       </c>
       <c r="F1210" t="s">
-        <v>2186</v>
+        <v>2200</v>
       </c>
       <c r="G1210" t="n">
         <v>2</v>
@@ -43383,13 +43425,13 @@
         <v>1210</v>
       </c>
       <c r="E1211" t="s">
-        <v>135</v>
+        <v>2335</v>
       </c>
       <c r="F1211" t="s">
-        <v>136</v>
+        <v>2336</v>
       </c>
       <c r="G1211" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1211" t="s">
         <v>4</v>
@@ -43412,13 +43454,13 @@
         <v>1211</v>
       </c>
       <c r="E1212" t="s">
-        <v>119</v>
+        <v>891</v>
       </c>
       <c r="F1212" t="s">
-        <v>120</v>
+        <v>892</v>
       </c>
       <c r="G1212" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1212" t="s">
         <v>4</v>
@@ -43441,13 +43483,13 @@
         <v>1212</v>
       </c>
       <c r="E1213" t="s">
-        <v>2327</v>
+        <v>2271</v>
       </c>
       <c r="F1213" t="s">
-        <v>2328</v>
+        <v>2272</v>
       </c>
       <c r="G1213" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H1213" t="s">
         <v>4</v>
@@ -43470,10 +43512,10 @@
         <v>1213</v>
       </c>
       <c r="E1214" t="s">
-        <v>2329</v>
+        <v>2337</v>
       </c>
       <c r="F1214" t="s">
-        <v>2330</v>
+        <v>2338</v>
       </c>
       <c r="G1214" t="n">
         <v>2</v>
@@ -43499,10 +43541,10 @@
         <v>1214</v>
       </c>
       <c r="E1215" t="s">
-        <v>2331</v>
+        <v>2267</v>
       </c>
       <c r="F1215" t="s">
-        <v>2332</v>
+        <v>2268</v>
       </c>
       <c r="G1215" t="n">
         <v>2</v>
@@ -43528,10 +43570,10 @@
         <v>1215</v>
       </c>
       <c r="E1216" t="s">
-        <v>2333</v>
+        <v>2185</v>
       </c>
       <c r="F1216" t="s">
-        <v>2334</v>
+        <v>2186</v>
       </c>
       <c r="G1216" t="n">
         <v>2</v>
@@ -43557,13 +43599,13 @@
         <v>1216</v>
       </c>
       <c r="E1217" t="s">
-        <v>2335</v>
+        <v>135</v>
       </c>
       <c r="F1217" t="s">
-        <v>2336</v>
+        <v>136</v>
       </c>
       <c r="G1217" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1217" t="s">
         <v>4</v>
@@ -43586,10 +43628,10 @@
         <v>1217</v>
       </c>
       <c r="E1218" t="s">
-        <v>2337</v>
+        <v>119</v>
       </c>
       <c r="F1218" t="s">
-        <v>2338</v>
+        <v>120</v>
       </c>
       <c r="G1218" t="n">
         <v>1</v>
@@ -43621,7 +43663,7 @@
         <v>2340</v>
       </c>
       <c r="G1219" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1219" t="s">
         <v>4</v>
@@ -43650,7 +43692,7 @@
         <v>2342</v>
       </c>
       <c r="G1220" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H1220" t="s">
         <v>4</v>
@@ -43673,10 +43715,10 @@
         <v>1220</v>
       </c>
       <c r="E1221" t="s">
-        <v>2275</v>
+        <v>2343</v>
       </c>
       <c r="F1221" t="s">
-        <v>2276</v>
+        <v>2344</v>
       </c>
       <c r="G1221" t="n">
         <v>2</v>
@@ -43702,10 +43744,10 @@
         <v>1221</v>
       </c>
       <c r="E1222" t="s">
-        <v>2343</v>
+        <v>2345</v>
       </c>
       <c r="F1222" t="s">
-        <v>2344</v>
+        <v>2346</v>
       </c>
       <c r="G1222" t="n">
         <v>2</v>
@@ -43731,13 +43773,13 @@
         <v>1222</v>
       </c>
       <c r="E1223" t="s">
-        <v>2345</v>
+        <v>2347</v>
       </c>
       <c r="F1223" t="s">
-        <v>2346</v>
+        <v>2348</v>
       </c>
       <c r="G1223" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1223" t="s">
         <v>4</v>
@@ -43760,13 +43802,13 @@
         <v>1223</v>
       </c>
       <c r="E1224" t="s">
-        <v>2345</v>
+        <v>2349</v>
       </c>
       <c r="F1224" t="s">
-        <v>2346</v>
+        <v>2350</v>
       </c>
       <c r="G1224" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1224" t="s">
         <v>4</v>
@@ -43789,10 +43831,10 @@
         <v>1224</v>
       </c>
       <c r="E1225" t="s">
-        <v>2347</v>
+        <v>2351</v>
       </c>
       <c r="F1225" t="s">
-        <v>2348</v>
+        <v>2352</v>
       </c>
       <c r="G1225" t="n">
         <v>1</v>
@@ -43818,13 +43860,13 @@
         <v>1225</v>
       </c>
       <c r="E1226" t="s">
-        <v>871</v>
+        <v>2353</v>
       </c>
       <c r="F1226" t="s">
-        <v>872</v>
+        <v>2354</v>
       </c>
       <c r="G1226" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H1226" t="s">
         <v>4</v>
@@ -43847,10 +43889,10 @@
         <v>1226</v>
       </c>
       <c r="E1227" t="s">
-        <v>2349</v>
+        <v>2285</v>
       </c>
       <c r="F1227" t="s">
-        <v>2350</v>
+        <v>2286</v>
       </c>
       <c r="G1227" t="n">
         <v>2</v>
@@ -43876,10 +43918,10 @@
         <v>1227</v>
       </c>
       <c r="E1228" t="s">
-        <v>2351</v>
+        <v>2355</v>
       </c>
       <c r="F1228" t="s">
-        <v>2352</v>
+        <v>2356</v>
       </c>
       <c r="G1228" t="n">
         <v>2</v>
@@ -43905,10 +43947,10 @@
         <v>1228</v>
       </c>
       <c r="E1229" t="s">
-        <v>2353</v>
+        <v>2357</v>
       </c>
       <c r="F1229" t="s">
-        <v>2354</v>
+        <v>2358</v>
       </c>
       <c r="G1229" t="n">
         <v>2</v>
@@ -43934,13 +43976,13 @@
         <v>1229</v>
       </c>
       <c r="E1230" t="s">
-        <v>2355</v>
+        <v>2357</v>
       </c>
       <c r="F1230" t="s">
-        <v>2356</v>
+        <v>2358</v>
       </c>
       <c r="G1230" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1230" t="s">
         <v>4</v>
@@ -43963,13 +44005,13 @@
         <v>1230</v>
       </c>
       <c r="E1231" t="s">
-        <v>2357</v>
+        <v>2359</v>
       </c>
       <c r="F1231" t="s">
-        <v>2358</v>
+        <v>2360</v>
       </c>
       <c r="G1231" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1231" t="s">
         <v>4</v>
@@ -43992,13 +44034,13 @@
         <v>1231</v>
       </c>
       <c r="E1232" t="s">
-        <v>2359</v>
+        <v>871</v>
       </c>
       <c r="F1232" t="s">
-        <v>2360</v>
+        <v>872</v>
       </c>
       <c r="G1232" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1232" t="s">
         <v>4</v>
@@ -44056,7 +44098,7 @@
         <v>2364</v>
       </c>
       <c r="G1234" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1234" t="s">
         <v>4</v>
@@ -44085,7 +44127,7 @@
         <v>2366</v>
       </c>
       <c r="G1235" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1235" t="s">
         <v>4</v>
@@ -44108,13 +44150,13 @@
         <v>1235</v>
       </c>
       <c r="E1236" t="s">
-        <v>2283</v>
+        <v>2367</v>
       </c>
       <c r="F1236" t="s">
-        <v>2284</v>
+        <v>2368</v>
       </c>
       <c r="G1236" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1236" t="s">
         <v>4</v>
@@ -44137,13 +44179,13 @@
         <v>1236</v>
       </c>
       <c r="E1237" t="s">
-        <v>2283</v>
+        <v>2369</v>
       </c>
       <c r="F1237" t="s">
-        <v>2284</v>
+        <v>2370</v>
       </c>
       <c r="G1237" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1237" t="s">
         <v>4</v>
@@ -44166,10 +44208,10 @@
         <v>1237</v>
       </c>
       <c r="E1238" t="s">
-        <v>2345</v>
+        <v>2371</v>
       </c>
       <c r="F1238" t="s">
-        <v>2346</v>
+        <v>2372</v>
       </c>
       <c r="G1238" t="n">
         <v>1</v>
@@ -44195,13 +44237,13 @@
         <v>1238</v>
       </c>
       <c r="E1239" t="s">
-        <v>2345</v>
+        <v>2373</v>
       </c>
       <c r="F1239" t="s">
-        <v>2346</v>
+        <v>2374</v>
       </c>
       <c r="G1239" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1239" t="s">
         <v>4</v>
@@ -44224,10 +44266,10 @@
         <v>1239</v>
       </c>
       <c r="E1240" t="s">
-        <v>2367</v>
+        <v>2375</v>
       </c>
       <c r="F1240" t="s">
-        <v>2368</v>
+        <v>2376</v>
       </c>
       <c r="G1240" t="n">
         <v>1</v>
@@ -44253,10 +44295,10 @@
         <v>1240</v>
       </c>
       <c r="E1241" t="s">
-        <v>871</v>
+        <v>2377</v>
       </c>
       <c r="F1241" t="s">
-        <v>872</v>
+        <v>2378</v>
       </c>
       <c r="G1241" t="n">
         <v>1</v>
@@ -44282,13 +44324,13 @@
         <v>1241</v>
       </c>
       <c r="E1242" t="s">
-        <v>2349</v>
+        <v>2293</v>
       </c>
       <c r="F1242" t="s">
-        <v>2350</v>
+        <v>2294</v>
       </c>
       <c r="G1242" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1242" t="s">
         <v>4</v>
@@ -44311,10 +44353,10 @@
         <v>1242</v>
       </c>
       <c r="E1243" t="s">
-        <v>2369</v>
+        <v>2293</v>
       </c>
       <c r="F1243" t="s">
-        <v>2370</v>
+        <v>2294</v>
       </c>
       <c r="G1243" t="n">
         <v>1</v>
@@ -44340,10 +44382,10 @@
         <v>1243</v>
       </c>
       <c r="E1244" t="s">
-        <v>2351</v>
+        <v>2357</v>
       </c>
       <c r="F1244" t="s">
-        <v>2352</v>
+        <v>2358</v>
       </c>
       <c r="G1244" t="n">
         <v>1</v>
@@ -44369,10 +44411,10 @@
         <v>1244</v>
       </c>
       <c r="E1245" t="s">
-        <v>2353</v>
+        <v>2357</v>
       </c>
       <c r="F1245" t="s">
-        <v>2354</v>
+        <v>2358</v>
       </c>
       <c r="G1245" t="n">
         <v>1</v>
@@ -44398,10 +44440,10 @@
         <v>1245</v>
       </c>
       <c r="E1246" t="s">
-        <v>2261</v>
+        <v>2379</v>
       </c>
       <c r="F1246" t="s">
-        <v>2262</v>
+        <v>2380</v>
       </c>
       <c r="G1246" t="n">
         <v>1</v>
@@ -44427,10 +44469,10 @@
         <v>1246</v>
       </c>
       <c r="E1247" t="s">
-        <v>2259</v>
+        <v>871</v>
       </c>
       <c r="F1247" t="s">
-        <v>2260</v>
+        <v>872</v>
       </c>
       <c r="G1247" t="n">
         <v>1</v>
@@ -44456,10 +44498,10 @@
         <v>1247</v>
       </c>
       <c r="E1248" t="s">
-        <v>2257</v>
+        <v>2361</v>
       </c>
       <c r="F1248" t="s">
-        <v>2258</v>
+        <v>2362</v>
       </c>
       <c r="G1248" t="n">
         <v>1</v>
@@ -44485,10 +44527,10 @@
         <v>1248</v>
       </c>
       <c r="E1249" t="s">
-        <v>2185</v>
+        <v>2381</v>
       </c>
       <c r="F1249" t="s">
-        <v>2186</v>
+        <v>2382</v>
       </c>
       <c r="G1249" t="n">
         <v>1</v>
@@ -44514,10 +44556,10 @@
         <v>1249</v>
       </c>
       <c r="E1250" t="s">
-        <v>135</v>
+        <v>2363</v>
       </c>
       <c r="F1250" t="s">
-        <v>136</v>
+        <v>2364</v>
       </c>
       <c r="G1250" t="n">
         <v>1</v>
@@ -44543,10 +44585,10 @@
         <v>1250</v>
       </c>
       <c r="E1251" t="s">
-        <v>2199</v>
+        <v>2365</v>
       </c>
       <c r="F1251" t="s">
-        <v>2200</v>
+        <v>2366</v>
       </c>
       <c r="G1251" t="n">
         <v>1</v>
@@ -44572,10 +44614,10 @@
         <v>1251</v>
       </c>
       <c r="E1252" t="s">
-        <v>2317</v>
+        <v>2271</v>
       </c>
       <c r="F1252" t="s">
-        <v>2318</v>
+        <v>2272</v>
       </c>
       <c r="G1252" t="n">
         <v>1</v>
@@ -44601,10 +44643,10 @@
         <v>1252</v>
       </c>
       <c r="E1253" t="s">
-        <v>2371</v>
+        <v>2269</v>
       </c>
       <c r="F1253" t="s">
-        <v>2372</v>
+        <v>2270</v>
       </c>
       <c r="G1253" t="n">
         <v>1</v>
@@ -44630,10 +44672,10 @@
         <v>1253</v>
       </c>
       <c r="E1254" t="s">
-        <v>2329</v>
+        <v>2267</v>
       </c>
       <c r="F1254" t="s">
-        <v>2330</v>
+        <v>2268</v>
       </c>
       <c r="G1254" t="n">
         <v>1</v>
@@ -44659,10 +44701,10 @@
         <v>1254</v>
       </c>
       <c r="E1255" t="s">
-        <v>2331</v>
+        <v>2185</v>
       </c>
       <c r="F1255" t="s">
-        <v>2332</v>
+        <v>2186</v>
       </c>
       <c r="G1255" t="n">
         <v>1</v>
@@ -44688,10 +44730,10 @@
         <v>1255</v>
       </c>
       <c r="E1256" t="s">
-        <v>2333</v>
+        <v>135</v>
       </c>
       <c r="F1256" t="s">
-        <v>2334</v>
+        <v>136</v>
       </c>
       <c r="G1256" t="n">
         <v>1</v>
@@ -44717,10 +44759,10 @@
         <v>1256</v>
       </c>
       <c r="E1257" t="s">
-        <v>2373</v>
+        <v>2199</v>
       </c>
       <c r="F1257" t="s">
-        <v>2374</v>
+        <v>2200</v>
       </c>
       <c r="G1257" t="n">
         <v>1</v>
@@ -44746,10 +44788,10 @@
         <v>1257</v>
       </c>
       <c r="E1258" t="s">
-        <v>2375</v>
+        <v>2329</v>
       </c>
       <c r="F1258" t="s">
-        <v>2376</v>
+        <v>2330</v>
       </c>
       <c r="G1258" t="n">
         <v>1</v>
@@ -44775,13 +44817,13 @@
         <v>1258</v>
       </c>
       <c r="E1259" t="s">
-        <v>2377</v>
+        <v>2383</v>
       </c>
       <c r="F1259" t="s">
-        <v>2378</v>
+        <v>2384</v>
       </c>
       <c r="G1259" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1259" t="s">
         <v>4</v>
@@ -44804,10 +44846,10 @@
         <v>1259</v>
       </c>
       <c r="E1260" t="s">
-        <v>2379</v>
+        <v>2341</v>
       </c>
       <c r="F1260" t="s">
-        <v>2380</v>
+        <v>2342</v>
       </c>
       <c r="G1260" t="n">
         <v>1</v>
@@ -44833,13 +44875,13 @@
         <v>1260</v>
       </c>
       <c r="E1261" t="s">
-        <v>2381</v>
+        <v>2343</v>
       </c>
       <c r="F1261" t="s">
-        <v>2382</v>
+        <v>2344</v>
       </c>
       <c r="G1261" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H1261" t="s">
         <v>4</v>
@@ -44862,13 +44904,13 @@
         <v>1261</v>
       </c>
       <c r="E1262" t="s">
-        <v>2383</v>
+        <v>2345</v>
       </c>
       <c r="F1262" t="s">
-        <v>2384</v>
+        <v>2346</v>
       </c>
       <c r="G1262" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1262" t="s">
         <v>4</v>
@@ -44920,10 +44962,10 @@
         <v>1263</v>
       </c>
       <c r="E1264" t="s">
-        <v>1079</v>
+        <v>2387</v>
       </c>
       <c r="F1264" t="s">
-        <v>1080</v>
+        <v>2388</v>
       </c>
       <c r="G1264" t="n">
         <v>1</v>
@@ -44949,10 +44991,10 @@
         <v>1264</v>
       </c>
       <c r="E1265" t="s">
-        <v>2387</v>
+        <v>2389</v>
       </c>
       <c r="F1265" t="s">
-        <v>2388</v>
+        <v>2390</v>
       </c>
       <c r="G1265" t="n">
         <v>2</v>
@@ -44978,10 +45020,10 @@
         <v>1265</v>
       </c>
       <c r="E1266" t="s">
-        <v>2389</v>
+        <v>2391</v>
       </c>
       <c r="F1266" t="s">
-        <v>2390</v>
+        <v>2392</v>
       </c>
       <c r="G1266" t="n">
         <v>1</v>
@@ -45007,13 +45049,13 @@
         <v>1266</v>
       </c>
       <c r="E1267" t="s">
-        <v>2391</v>
+        <v>2393</v>
       </c>
       <c r="F1267" t="s">
-        <v>2392</v>
+        <v>2394</v>
       </c>
       <c r="G1267" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H1267" t="s">
         <v>4</v>
@@ -45036,13 +45078,13 @@
         <v>1267</v>
       </c>
       <c r="E1268" t="s">
-        <v>2393</v>
+        <v>2395</v>
       </c>
       <c r="F1268" t="s">
-        <v>2394</v>
+        <v>2396</v>
       </c>
       <c r="G1268" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1268" t="s">
         <v>4</v>
@@ -45065,13 +45107,13 @@
         <v>1268</v>
       </c>
       <c r="E1269" t="s">
-        <v>2395</v>
+        <v>2397</v>
       </c>
       <c r="F1269" t="s">
-        <v>2396</v>
+        <v>2398</v>
       </c>
       <c r="G1269" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H1269" t="s">
         <v>4</v>
@@ -45094,10 +45136,10 @@
         <v>1269</v>
       </c>
       <c r="E1270" t="s">
-        <v>2387</v>
+        <v>1079</v>
       </c>
       <c r="F1270" t="s">
-        <v>2388</v>
+        <v>1080</v>
       </c>
       <c r="G1270" t="n">
         <v>1</v>
@@ -45123,10 +45165,10 @@
         <v>1270</v>
       </c>
       <c r="E1271" t="s">
-        <v>2397</v>
+        <v>2399</v>
       </c>
       <c r="F1271" t="s">
-        <v>2398</v>
+        <v>2400</v>
       </c>
       <c r="G1271" t="n">
         <v>2</v>
@@ -45152,13 +45194,13 @@
         <v>1271</v>
       </c>
       <c r="E1272" t="s">
-        <v>2399</v>
+        <v>2401</v>
       </c>
       <c r="F1272" t="s">
-        <v>2400</v>
+        <v>2402</v>
       </c>
       <c r="G1272" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1272" t="s">
         <v>4</v>
@@ -45181,13 +45223,13 @@
         <v>1272</v>
       </c>
       <c r="E1273" t="s">
-        <v>2401</v>
+        <v>2403</v>
       </c>
       <c r="F1273" t="s">
-        <v>2402</v>
+        <v>2404</v>
       </c>
       <c r="G1273" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H1273" t="s">
         <v>4</v>
@@ -45210,13 +45252,13 @@
         <v>1273</v>
       </c>
       <c r="E1274" t="s">
-        <v>2403</v>
+        <v>2405</v>
       </c>
       <c r="F1274" t="s">
-        <v>2404</v>
+        <v>2406</v>
       </c>
       <c r="G1274" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H1274" t="s">
         <v>4</v>
@@ -45239,10 +45281,10 @@
         <v>1274</v>
       </c>
       <c r="E1275" t="s">
-        <v>2405</v>
+        <v>2407</v>
       </c>
       <c r="F1275" t="s">
-        <v>2406</v>
+        <v>2408</v>
       </c>
       <c r="G1275" t="n">
         <v>3</v>
@@ -45268,13 +45310,13 @@
         <v>1275</v>
       </c>
       <c r="E1276" t="s">
-        <v>2407</v>
+        <v>2399</v>
       </c>
       <c r="F1276" t="s">
-        <v>2408</v>
+        <v>2400</v>
       </c>
       <c r="G1276" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H1276" t="s">
         <v>4</v>
@@ -45303,7 +45345,7 @@
         <v>2410</v>
       </c>
       <c r="G1277" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1277" t="s">
         <v>4</v>
@@ -45326,13 +45368,13 @@
         <v>1277</v>
       </c>
       <c r="E1278" t="s">
-        <v>2341</v>
+        <v>2411</v>
       </c>
       <c r="F1278" t="s">
-        <v>2342</v>
+        <v>2412</v>
       </c>
       <c r="G1278" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1278" t="s">
         <v>4</v>
@@ -45355,13 +45397,13 @@
         <v>1278</v>
       </c>
       <c r="E1279" t="s">
-        <v>2349</v>
+        <v>2413</v>
       </c>
       <c r="F1279" t="s">
-        <v>2350</v>
+        <v>2414</v>
       </c>
       <c r="G1279" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H1279" t="s">
         <v>4</v>
@@ -45384,13 +45426,13 @@
         <v>1279</v>
       </c>
       <c r="E1280" t="s">
-        <v>2411</v>
+        <v>2415</v>
       </c>
       <c r="F1280" t="s">
-        <v>2412</v>
+        <v>2416</v>
       </c>
       <c r="G1280" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H1280" t="s">
         <v>4</v>
@@ -45413,13 +45455,13 @@
         <v>1280</v>
       </c>
       <c r="E1281" t="s">
-        <v>2261</v>
+        <v>2417</v>
       </c>
       <c r="F1281" t="s">
-        <v>2262</v>
+        <v>2418</v>
       </c>
       <c r="G1281" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H1281" t="s">
         <v>4</v>
@@ -45442,13 +45484,13 @@
         <v>1281</v>
       </c>
       <c r="E1282" t="s">
-        <v>2259</v>
+        <v>2419</v>
       </c>
       <c r="F1282" t="s">
-        <v>2260</v>
+        <v>2420</v>
       </c>
       <c r="G1282" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H1282" t="s">
         <v>4</v>
@@ -45471,10 +45513,10 @@
         <v>1282</v>
       </c>
       <c r="E1283" t="s">
-        <v>2413</v>
+        <v>2421</v>
       </c>
       <c r="F1283" t="s">
-        <v>2414</v>
+        <v>2422</v>
       </c>
       <c r="G1283" t="n">
         <v>1</v>
@@ -45500,13 +45542,13 @@
         <v>1283</v>
       </c>
       <c r="E1284" t="s">
-        <v>253</v>
+        <v>2353</v>
       </c>
       <c r="F1284" t="s">
-        <v>254</v>
+        <v>2354</v>
       </c>
       <c r="G1284" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1284" t="s">
         <v>4</v>
@@ -45529,13 +45571,13 @@
         <v>1284</v>
       </c>
       <c r="E1285" t="s">
-        <v>2415</v>
+        <v>2361</v>
       </c>
       <c r="F1285" t="s">
-        <v>2416</v>
+        <v>2362</v>
       </c>
       <c r="G1285" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1285" t="s">
         <v>4</v>
@@ -45558,13 +45600,13 @@
         <v>1285</v>
       </c>
       <c r="E1286" t="s">
-        <v>2417</v>
+        <v>2423</v>
       </c>
       <c r="F1286" t="s">
-        <v>2418</v>
+        <v>2424</v>
       </c>
       <c r="G1286" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1286" t="s">
         <v>4</v>
@@ -45587,13 +45629,13 @@
         <v>1286</v>
       </c>
       <c r="E1287" t="s">
-        <v>2419</v>
+        <v>2271</v>
       </c>
       <c r="F1287" t="s">
-        <v>2420</v>
+        <v>2272</v>
       </c>
       <c r="G1287" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H1287" t="s">
         <v>4</v>
@@ -45616,13 +45658,13 @@
         <v>1287</v>
       </c>
       <c r="E1288" t="s">
-        <v>2421</v>
+        <v>2269</v>
       </c>
       <c r="F1288" t="s">
-        <v>2422</v>
+        <v>2270</v>
       </c>
       <c r="G1288" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1288" t="s">
         <v>4</v>
@@ -45645,10 +45687,10 @@
         <v>1288</v>
       </c>
       <c r="E1289" t="s">
-        <v>2423</v>
+        <v>2425</v>
       </c>
       <c r="F1289" t="s">
-        <v>2424</v>
+        <v>2426</v>
       </c>
       <c r="G1289" t="n">
         <v>1</v>
@@ -45674,13 +45716,13 @@
         <v>1289</v>
       </c>
       <c r="E1290" t="s">
-        <v>2425</v>
+        <v>253</v>
       </c>
       <c r="F1290" t="s">
-        <v>2426</v>
+        <v>254</v>
       </c>
       <c r="G1290" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1290" t="s">
         <v>4</v>
@@ -45796,7 +45838,7 @@
         <v>2434</v>
       </c>
       <c r="G1294" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1294" t="s">
         <v>4</v>
@@ -45935,13 +45977,13 @@
         <v>1298</v>
       </c>
       <c r="E1299" t="s">
-        <v>947</v>
+        <v>2443</v>
       </c>
       <c r="F1299" t="s">
-        <v>948</v>
+        <v>2444</v>
       </c>
       <c r="G1299" t="n">
-        <v>130</v>
+        <v>1</v>
       </c>
       <c r="H1299" t="s">
         <v>4</v>
@@ -45964,13 +46006,13 @@
         <v>1299</v>
       </c>
       <c r="E1300" t="s">
-        <v>2443</v>
+        <v>2445</v>
       </c>
       <c r="F1300" t="s">
-        <v>2444</v>
+        <v>2446</v>
       </c>
       <c r="G1300" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1300" t="s">
         <v>4</v>
@@ -45993,10 +46035,10 @@
         <v>1300</v>
       </c>
       <c r="E1301" t="s">
-        <v>2445</v>
+        <v>2447</v>
       </c>
       <c r="F1301" t="s">
-        <v>2446</v>
+        <v>2448</v>
       </c>
       <c r="G1301" t="n">
         <v>1</v>
@@ -46022,10 +46064,10 @@
         <v>1301</v>
       </c>
       <c r="E1302" t="s">
-        <v>2447</v>
+        <v>2449</v>
       </c>
       <c r="F1302" t="s">
-        <v>2448</v>
+        <v>2450</v>
       </c>
       <c r="G1302" t="n">
         <v>1</v>
@@ -46051,10 +46093,10 @@
         <v>1302</v>
       </c>
       <c r="E1303" t="s">
-        <v>2449</v>
+        <v>2451</v>
       </c>
       <c r="F1303" t="s">
-        <v>2450</v>
+        <v>2452</v>
       </c>
       <c r="G1303" t="n">
         <v>1</v>
@@ -46080,10 +46122,10 @@
         <v>1303</v>
       </c>
       <c r="E1304" t="s">
-        <v>2451</v>
+        <v>2453</v>
       </c>
       <c r="F1304" t="s">
-        <v>2452</v>
+        <v>2454</v>
       </c>
       <c r="G1304" t="n">
         <v>1</v>
@@ -46109,13 +46151,13 @@
         <v>1304</v>
       </c>
       <c r="E1305" t="s">
-        <v>2453</v>
+        <v>947</v>
       </c>
       <c r="F1305" t="s">
-        <v>2454</v>
+        <v>948</v>
       </c>
       <c r="G1305" t="n">
-        <v>1</v>
+        <v>130</v>
       </c>
       <c r="H1305" t="s">
         <v>4</v>
@@ -46376,7 +46418,7 @@
         <v>2472</v>
       </c>
       <c r="G1314" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1314" t="s">
         <v>4</v>
@@ -46550,7 +46592,7 @@
         <v>2484</v>
       </c>
       <c r="G1320" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1320" t="s">
         <v>4</v>
@@ -46637,7 +46679,7 @@
         <v>2490</v>
       </c>
       <c r="G1323" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H1323" t="s">
         <v>4</v>
@@ -46811,7 +46853,7 @@
         <v>2502</v>
       </c>
       <c r="G1329" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H1329" t="s">
         <v>4</v>
@@ -47275,7 +47317,7 @@
         <v>2534</v>
       </c>
       <c r="G1345" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1345" t="s">
         <v>4</v>
@@ -47443,13 +47485,13 @@
         <v>1350</v>
       </c>
       <c r="E1351" t="s">
-        <v>2203</v>
+        <v>2545</v>
       </c>
       <c r="F1351" t="s">
-        <v>2204</v>
+        <v>2546</v>
       </c>
       <c r="G1351" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1351" t="s">
         <v>4</v>
@@ -47472,10 +47514,10 @@
         <v>1351</v>
       </c>
       <c r="E1352" t="s">
-        <v>2545</v>
+        <v>2547</v>
       </c>
       <c r="F1352" t="s">
-        <v>2546</v>
+        <v>2548</v>
       </c>
       <c r="G1352" t="n">
         <v>1</v>
@@ -47501,10 +47543,10 @@
         <v>1352</v>
       </c>
       <c r="E1353" t="s">
-        <v>2547</v>
+        <v>2549</v>
       </c>
       <c r="F1353" t="s">
-        <v>2548</v>
+        <v>2550</v>
       </c>
       <c r="G1353" t="n">
         <v>1</v>
@@ -47530,10 +47572,10 @@
         <v>1353</v>
       </c>
       <c r="E1354" t="s">
-        <v>2549</v>
+        <v>2551</v>
       </c>
       <c r="F1354" t="s">
-        <v>2550</v>
+        <v>2552</v>
       </c>
       <c r="G1354" t="n">
         <v>1</v>
@@ -47559,10 +47601,10 @@
         <v>1354</v>
       </c>
       <c r="E1355" t="s">
-        <v>2551</v>
+        <v>2553</v>
       </c>
       <c r="F1355" t="s">
-        <v>2552</v>
+        <v>2554</v>
       </c>
       <c r="G1355" t="n">
         <v>1</v>
@@ -47588,10 +47630,10 @@
         <v>1355</v>
       </c>
       <c r="E1356" t="s">
-        <v>2553</v>
+        <v>2555</v>
       </c>
       <c r="F1356" t="s">
-        <v>2554</v>
+        <v>2556</v>
       </c>
       <c r="G1356" t="n">
         <v>1</v>
@@ -47617,10 +47659,10 @@
         <v>1356</v>
       </c>
       <c r="E1357" t="s">
-        <v>2555</v>
+        <v>2557</v>
       </c>
       <c r="F1357" t="s">
-        <v>2556</v>
+        <v>2558</v>
       </c>
       <c r="G1357" t="n">
         <v>1</v>
@@ -47646,10 +47688,10 @@
         <v>1357</v>
       </c>
       <c r="E1358" t="s">
-        <v>2557</v>
+        <v>2559</v>
       </c>
       <c r="F1358" t="s">
-        <v>2558</v>
+        <v>2560</v>
       </c>
       <c r="G1358" t="n">
         <v>1</v>
@@ -47675,10 +47717,10 @@
         <v>1358</v>
       </c>
       <c r="E1359" t="s">
-        <v>2559</v>
+        <v>2561</v>
       </c>
       <c r="F1359" t="s">
-        <v>2560</v>
+        <v>2562</v>
       </c>
       <c r="G1359" t="n">
         <v>1</v>
@@ -47704,13 +47746,13 @@
         <v>1359</v>
       </c>
       <c r="E1360" t="s">
-        <v>2561</v>
+        <v>2563</v>
       </c>
       <c r="F1360" t="s">
-        <v>2562</v>
+        <v>2564</v>
       </c>
       <c r="G1360" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1360" t="s">
         <v>4</v>
@@ -47733,10 +47775,10 @@
         <v>1360</v>
       </c>
       <c r="E1361" t="s">
-        <v>2563</v>
+        <v>2565</v>
       </c>
       <c r="F1361" t="s">
-        <v>2564</v>
+        <v>2566</v>
       </c>
       <c r="G1361" t="n">
         <v>1</v>
@@ -47762,10 +47804,10 @@
         <v>1361</v>
       </c>
       <c r="E1362" t="s">
-        <v>2565</v>
+        <v>2567</v>
       </c>
       <c r="F1362" t="s">
-        <v>2566</v>
+        <v>2568</v>
       </c>
       <c r="G1362" t="n">
         <v>1</v>
@@ -47791,10 +47833,10 @@
         <v>1362</v>
       </c>
       <c r="E1363" t="s">
-        <v>2567</v>
+        <v>2569</v>
       </c>
       <c r="F1363" t="s">
-        <v>2568</v>
+        <v>2570</v>
       </c>
       <c r="G1363" t="n">
         <v>1</v>
@@ -47820,10 +47862,10 @@
         <v>1363</v>
       </c>
       <c r="E1364" t="s">
-        <v>141</v>
+        <v>2571</v>
       </c>
       <c r="F1364" t="s">
-        <v>142</v>
+        <v>2572</v>
       </c>
       <c r="G1364" t="n">
         <v>1</v>
@@ -47849,13 +47891,13 @@
         <v>1364</v>
       </c>
       <c r="E1365" t="s">
-        <v>2317</v>
+        <v>2573</v>
       </c>
       <c r="F1365" t="s">
-        <v>2318</v>
+        <v>2574</v>
       </c>
       <c r="G1365" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1365" t="s">
         <v>4</v>
@@ -47878,13 +47920,13 @@
         <v>1365</v>
       </c>
       <c r="E1366" t="s">
-        <v>2569</v>
+        <v>2575</v>
       </c>
       <c r="F1366" t="s">
-        <v>2570</v>
+        <v>2576</v>
       </c>
       <c r="G1366" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1366" t="s">
         <v>4</v>
@@ -47907,10 +47949,10 @@
         <v>1366</v>
       </c>
       <c r="E1367" t="s">
-        <v>2571</v>
+        <v>2577</v>
       </c>
       <c r="F1367" t="s">
-        <v>2572</v>
+        <v>2578</v>
       </c>
       <c r="G1367" t="n">
         <v>1</v>
@@ -47936,13 +47978,13 @@
         <v>1367</v>
       </c>
       <c r="E1368" t="s">
-        <v>2573</v>
+        <v>2579</v>
       </c>
       <c r="F1368" t="s">
-        <v>2574</v>
+        <v>2580</v>
       </c>
       <c r="G1368" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1368" t="s">
         <v>4</v>
@@ -47965,10 +48007,10 @@
         <v>1368</v>
       </c>
       <c r="E1369" t="s">
-        <v>2575</v>
+        <v>2581</v>
       </c>
       <c r="F1369" t="s">
-        <v>2576</v>
+        <v>2582</v>
       </c>
       <c r="G1369" t="n">
         <v>1</v>
@@ -47994,10 +48036,10 @@
         <v>1369</v>
       </c>
       <c r="E1370" t="s">
-        <v>2577</v>
+        <v>141</v>
       </c>
       <c r="F1370" t="s">
-        <v>2578</v>
+        <v>142</v>
       </c>
       <c r="G1370" t="n">
         <v>1</v>
@@ -48023,13 +48065,13 @@
         <v>1370</v>
       </c>
       <c r="E1371" t="s">
-        <v>2579</v>
+        <v>2329</v>
       </c>
       <c r="F1371" t="s">
-        <v>2580</v>
+        <v>2330</v>
       </c>
       <c r="G1371" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1371" t="s">
         <v>4</v>
@@ -48052,10 +48094,10 @@
         <v>1371</v>
       </c>
       <c r="E1372" t="s">
-        <v>2581</v>
+        <v>2583</v>
       </c>
       <c r="F1372" t="s">
-        <v>2582</v>
+        <v>2584</v>
       </c>
       <c r="G1372" t="n">
         <v>1</v>
@@ -48081,10 +48123,10 @@
         <v>1372</v>
       </c>
       <c r="E1373" t="s">
-        <v>2583</v>
+        <v>2585</v>
       </c>
       <c r="F1373" t="s">
-        <v>2584</v>
+        <v>2586</v>
       </c>
       <c r="G1373" t="n">
         <v>1</v>
@@ -48110,13 +48152,13 @@
         <v>1373</v>
       </c>
       <c r="E1374" t="s">
-        <v>2585</v>
+        <v>2587</v>
       </c>
       <c r="F1374" t="s">
-        <v>2586</v>
+        <v>2588</v>
       </c>
       <c r="G1374" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1374" t="s">
         <v>4</v>
@@ -48139,10 +48181,10 @@
         <v>1374</v>
       </c>
       <c r="E1375" t="s">
-        <v>2587</v>
+        <v>2589</v>
       </c>
       <c r="F1375" t="s">
-        <v>2588</v>
+        <v>2590</v>
       </c>
       <c r="G1375" t="n">
         <v>1</v>
@@ -48168,10 +48210,10 @@
         <v>1375</v>
       </c>
       <c r="E1376" t="s">
-        <v>2589</v>
+        <v>2591</v>
       </c>
       <c r="F1376" t="s">
-        <v>2590</v>
+        <v>2592</v>
       </c>
       <c r="G1376" t="n">
         <v>1</v>
@@ -48197,10 +48239,10 @@
         <v>1376</v>
       </c>
       <c r="E1377" t="s">
-        <v>2591</v>
+        <v>2593</v>
       </c>
       <c r="F1377" t="s">
-        <v>2592</v>
+        <v>2594</v>
       </c>
       <c r="G1377" t="n">
         <v>1</v>
@@ -48226,10 +48268,10 @@
         <v>1377</v>
       </c>
       <c r="E1378" t="s">
-        <v>2593</v>
+        <v>2595</v>
       </c>
       <c r="F1378" t="s">
-        <v>2594</v>
+        <v>2596</v>
       </c>
       <c r="G1378" t="n">
         <v>1</v>
@@ -48255,10 +48297,10 @@
         <v>1378</v>
       </c>
       <c r="E1379" t="s">
-        <v>2595</v>
+        <v>2597</v>
       </c>
       <c r="F1379" t="s">
-        <v>2596</v>
+        <v>2598</v>
       </c>
       <c r="G1379" t="n">
         <v>1</v>
@@ -48284,10 +48326,10 @@
         <v>1379</v>
       </c>
       <c r="E1380" t="s">
-        <v>2597</v>
+        <v>2599</v>
       </c>
       <c r="F1380" t="s">
-        <v>2598</v>
+        <v>2600</v>
       </c>
       <c r="G1380" t="n">
         <v>1</v>
@@ -48313,10 +48355,10 @@
         <v>1380</v>
       </c>
       <c r="E1381" t="s">
-        <v>2599</v>
+        <v>2601</v>
       </c>
       <c r="F1381" t="s">
-        <v>2600</v>
+        <v>2602</v>
       </c>
       <c r="G1381" t="n">
         <v>1</v>
@@ -48342,10 +48384,10 @@
         <v>1381</v>
       </c>
       <c r="E1382" t="s">
-        <v>2601</v>
+        <v>2603</v>
       </c>
       <c r="F1382" t="s">
-        <v>2602</v>
+        <v>2604</v>
       </c>
       <c r="G1382" t="n">
         <v>1</v>
@@ -48371,10 +48413,10 @@
         <v>1382</v>
       </c>
       <c r="E1383" t="s">
-        <v>2603</v>
+        <v>2605</v>
       </c>
       <c r="F1383" t="s">
-        <v>2604</v>
+        <v>2606</v>
       </c>
       <c r="G1383" t="n">
         <v>1</v>
@@ -48400,10 +48442,10 @@
         <v>1383</v>
       </c>
       <c r="E1384" t="s">
-        <v>2605</v>
+        <v>2607</v>
       </c>
       <c r="F1384" t="s">
-        <v>2606</v>
+        <v>2608</v>
       </c>
       <c r="G1384" t="n">
         <v>1</v>
@@ -48429,10 +48471,10 @@
         <v>1384</v>
       </c>
       <c r="E1385" t="s">
-        <v>2607</v>
+        <v>2609</v>
       </c>
       <c r="F1385" t="s">
-        <v>2608</v>
+        <v>2610</v>
       </c>
       <c r="G1385" t="n">
         <v>1</v>
@@ -48458,10 +48500,10 @@
         <v>1385</v>
       </c>
       <c r="E1386" t="s">
-        <v>2609</v>
+        <v>2611</v>
       </c>
       <c r="F1386" t="s">
-        <v>2610</v>
+        <v>2612</v>
       </c>
       <c r="G1386" t="n">
         <v>1</v>
@@ -48487,10 +48529,10 @@
         <v>1386</v>
       </c>
       <c r="E1387" t="s">
-        <v>2611</v>
+        <v>2613</v>
       </c>
       <c r="F1387" t="s">
-        <v>2612</v>
+        <v>2614</v>
       </c>
       <c r="G1387" t="n">
         <v>1</v>
@@ -48516,10 +48558,10 @@
         <v>1387</v>
       </c>
       <c r="E1388" t="s">
-        <v>2613</v>
+        <v>2615</v>
       </c>
       <c r="F1388" t="s">
-        <v>2614</v>
+        <v>2616</v>
       </c>
       <c r="G1388" t="n">
         <v>1</v>
@@ -48545,10 +48587,10 @@
         <v>1388</v>
       </c>
       <c r="E1389" t="s">
-        <v>2615</v>
+        <v>2617</v>
       </c>
       <c r="F1389" t="s">
-        <v>2616</v>
+        <v>2618</v>
       </c>
       <c r="G1389" t="n">
         <v>1</v>
@@ -48574,10 +48616,10 @@
         <v>1389</v>
       </c>
       <c r="E1390" t="s">
-        <v>2617</v>
+        <v>2619</v>
       </c>
       <c r="F1390" t="s">
-        <v>2618</v>
+        <v>2620</v>
       </c>
       <c r="G1390" t="n">
         <v>1</v>
@@ -48603,10 +48645,10 @@
         <v>1390</v>
       </c>
       <c r="E1391" t="s">
-        <v>2619</v>
+        <v>2621</v>
       </c>
       <c r="F1391" t="s">
-        <v>2620</v>
+        <v>2622</v>
       </c>
       <c r="G1391" t="n">
         <v>1</v>
@@ -48632,10 +48674,10 @@
         <v>1391</v>
       </c>
       <c r="E1392" t="s">
-        <v>2621</v>
+        <v>2623</v>
       </c>
       <c r="F1392" t="s">
-        <v>2622</v>
+        <v>2624</v>
       </c>
       <c r="G1392" t="n">
         <v>1</v>
@@ -48661,13 +48703,13 @@
         <v>1392</v>
       </c>
       <c r="E1393" t="s">
-        <v>2623</v>
+        <v>2625</v>
       </c>
       <c r="F1393" t="s">
-        <v>2624</v>
+        <v>2626</v>
       </c>
       <c r="G1393" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H1393" t="s">
         <v>4</v>
@@ -48690,10 +48732,10 @@
         <v>1393</v>
       </c>
       <c r="E1394" t="s">
-        <v>2625</v>
+        <v>2627</v>
       </c>
       <c r="F1394" t="s">
-        <v>2626</v>
+        <v>2628</v>
       </c>
       <c r="G1394" t="n">
         <v>1</v>
@@ -48719,10 +48761,10 @@
         <v>1394</v>
       </c>
       <c r="E1395" t="s">
-        <v>2627</v>
+        <v>2629</v>
       </c>
       <c r="F1395" t="s">
-        <v>2628</v>
+        <v>2630</v>
       </c>
       <c r="G1395" t="n">
         <v>1</v>
@@ -48748,10 +48790,10 @@
         <v>1395</v>
       </c>
       <c r="E1396" t="s">
-        <v>2629</v>
+        <v>2631</v>
       </c>
       <c r="F1396" t="s">
-        <v>2630</v>
+        <v>2632</v>
       </c>
       <c r="G1396" t="n">
         <v>1</v>
@@ -48777,10 +48819,10 @@
         <v>1396</v>
       </c>
       <c r="E1397" t="s">
-        <v>2631</v>
+        <v>2633</v>
       </c>
       <c r="F1397" t="s">
-        <v>2632</v>
+        <v>2634</v>
       </c>
       <c r="G1397" t="n">
         <v>1</v>
@@ -48806,10 +48848,10 @@
         <v>1397</v>
       </c>
       <c r="E1398" t="s">
-        <v>2633</v>
+        <v>2635</v>
       </c>
       <c r="F1398" t="s">
-        <v>2634</v>
+        <v>2636</v>
       </c>
       <c r="G1398" t="n">
         <v>1</v>
@@ -48835,18 +48877,192 @@
         <v>1398</v>
       </c>
       <c r="E1399" t="s">
-        <v>2635</v>
+        <v>2637</v>
       </c>
       <c r="F1399" t="s">
-        <v>2636</v>
+        <v>2638</v>
       </c>
       <c r="G1399" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H1399" t="s">
         <v>4</v>
       </c>
       <c r="I1399" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1400" spans="1:9">
+      <c r="A1400" s="1" t="n">
+        <v>1398</v>
+      </c>
+      <c r="B1400" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1400" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1400" t="n">
+        <v>1399</v>
+      </c>
+      <c r="E1400" t="s">
+        <v>2639</v>
+      </c>
+      <c r="F1400" t="s">
+        <v>2640</v>
+      </c>
+      <c r="G1400" t="n">
+        <v>1</v>
+      </c>
+      <c r="H1400" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1400" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1401" spans="1:9">
+      <c r="A1401" s="1" t="n">
+        <v>1399</v>
+      </c>
+      <c r="B1401" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1401" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1401" t="n">
+        <v>1400</v>
+      </c>
+      <c r="E1401" t="s">
+        <v>2641</v>
+      </c>
+      <c r="F1401" t="s">
+        <v>2642</v>
+      </c>
+      <c r="G1401" t="n">
+        <v>1</v>
+      </c>
+      <c r="H1401" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1401" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1402" spans="1:9">
+      <c r="A1402" s="1" t="n">
+        <v>1400</v>
+      </c>
+      <c r="B1402" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1402" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1402" t="n">
+        <v>1401</v>
+      </c>
+      <c r="E1402" t="s">
+        <v>2643</v>
+      </c>
+      <c r="F1402" t="s">
+        <v>2644</v>
+      </c>
+      <c r="G1402" t="n">
+        <v>1</v>
+      </c>
+      <c r="H1402" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1402" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1403" spans="1:9">
+      <c r="A1403" s="1" t="n">
+        <v>1401</v>
+      </c>
+      <c r="B1403" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1403" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1403" t="n">
+        <v>1402</v>
+      </c>
+      <c r="E1403" t="s">
+        <v>2645</v>
+      </c>
+      <c r="F1403" t="s">
+        <v>2646</v>
+      </c>
+      <c r="G1403" t="n">
+        <v>1</v>
+      </c>
+      <c r="H1403" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1403" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1404" spans="1:9">
+      <c r="A1404" s="1" t="n">
+        <v>1402</v>
+      </c>
+      <c r="B1404" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1404" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1404" t="n">
+        <v>1403</v>
+      </c>
+      <c r="E1404" t="s">
+        <v>2647</v>
+      </c>
+      <c r="F1404" t="s">
+        <v>2648</v>
+      </c>
+      <c r="G1404" t="n">
+        <v>1</v>
+      </c>
+      <c r="H1404" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1404" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1405" spans="1:9">
+      <c r="A1405" s="1" t="n">
+        <v>1403</v>
+      </c>
+      <c r="B1405" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1405" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1405" t="n">
+        <v>1404</v>
+      </c>
+      <c r="E1405" t="s">
+        <v>2649</v>
+      </c>
+      <c r="F1405" t="s">
+        <v>2650</v>
+      </c>
+      <c r="G1405" t="n">
+        <v>1</v>
+      </c>
+      <c r="H1405" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1405" t="n">
         <v>3</v>
       </c>
     </row>
